--- a/data/hotels_by_city/Houston/Houston_shard_593.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_593.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="344">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56432-d656294-Reviews-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-SpringHill-Suites-By-Marriott-Houston-Pearland.h1688365.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,934 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r557351453-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>56432</t>
+  </si>
+  <si>
+    <t>656294</t>
+  </si>
+  <si>
+    <t>557351453</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>Bed bugs!</t>
+  </si>
+  <si>
+    <t>BED BUGS GALORE!! My husband had been staying here while working at a new job. The first two weeks were uneventful but on week three he had about four or five bug bites. The hotel moved him to a different room on a different floor but the next day he had more bites. The hotel also took care of having his shirts dry cleaned. He then left for the weekend but bites kept popping up. He learned it sometimes takes days for bed bug bites to show up. He cancelled his reservation for the next week and moved to a different hotel. He took all his clothing to a laundromat and washed and dried them. When he took his clothing out of the dryer he found dead bed bugs! Now this morning at the new hotel, he opened up his box of cereal he had bought and had at this Spring hills Marriot, only to find it was crawling with bed bugs!! He has thrown away all his clothing, luggage and everything he had at the Marriot to be safe and will have to go out and buy new! I am beyond angry!! He is itching and bit up all over. He travels quite a lot for work and never had such a miserable experience. He has been home three times since staying at this place and if I end up with a bed bug infestation in my home from...BED BUGS GALORE!! My husband had been staying here while working at a new job. The first two weeks were uneventful but on week three he had about four or five bug bites. The hotel moved him to a different room on a different floor but the next day he had more bites. The hotel also took care of having his shirts dry cleaned. He then left for the weekend but bites kept popping up. He learned it sometimes takes days for bed bug bites to show up. He cancelled his reservation for the next week and moved to a different hotel. He took all his clothing to a laundromat and washed and dried them. When he took his clothing out of the dryer he found dead bed bugs! Now this morning at the new hotel, he opened up his box of cereal he had bought and had at this Spring hills Marriot, only to find it was crawling with bed bugs!! He has thrown away all his clothing, luggage and everything he had at the Marriot to be safe and will have to go out and buy new! I am beyond angry!! He is itching and bit up all over. He travels quite a lot for work and never had such a miserable experience. He has been home three times since staying at this place and if I end up with a bed bug infestation in my home from this, be assured the Marriot will be getting the bill for eradication!! MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>BED BUGS GALORE!! My husband had been staying here while working at a new job. The first two weeks were uneventful but on week three he had about four or five bug bites. The hotel moved him to a different room on a different floor but the next day he had more bites. The hotel also took care of having his shirts dry cleaned. He then left for the weekend but bites kept popping up. He learned it sometimes takes days for bed bug bites to show up. He cancelled his reservation for the next week and moved to a different hotel. He took all his clothing to a laundromat and washed and dried them. When he took his clothing out of the dryer he found dead bed bugs! Now this morning at the new hotel, he opened up his box of cereal he had bought and had at this Spring hills Marriot, only to find it was crawling with bed bugs!! He has thrown away all his clothing, luggage and everything he had at the Marriot to be safe and will have to go out and buy new! I am beyond angry!! He is itching and bit up all over. He travels quite a lot for work and never had such a miserable experience. He has been home three times since staying at this place and if I end up with a bed bug infestation in my home from...BED BUGS GALORE!! My husband had been staying here while working at a new job. The first two weeks were uneventful but on week three he had about four or five bug bites. The hotel moved him to a different room on a different floor but the next day he had more bites. The hotel also took care of having his shirts dry cleaned. He then left for the weekend but bites kept popping up. He learned it sometimes takes days for bed bug bites to show up. He cancelled his reservation for the next week and moved to a different hotel. He took all his clothing to a laundromat and washed and dried them. When he took his clothing out of the dryer he found dead bed bugs! Now this morning at the new hotel, he opened up his box of cereal he had bought and had at this Spring hills Marriot, only to find it was crawling with bed bugs!! He has thrown away all his clothing, luggage and everything he had at the Marriot to be safe and will have to go out and buy new! I am beyond angry!! He is itching and bit up all over. He travels quite a lot for work and never had such a miserable experience. He has been home three times since staying at this place and if I end up with a bed bug infestation in my home from this, be assured the Marriot will be getting the bill for eradication!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r545860214-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>545860214</t>
+  </si>
+  <si>
+    <t>12/07/2017</t>
+  </si>
+  <si>
+    <t>Very disappointing.</t>
+  </si>
+  <si>
+    <t>I'm typically quite forgiving of most hotels but I wish I had booked elsewhere.
+The downside: The room had a terrible smell the whole time, it was a very musty smell - it made returning to the room a disappointment each time. 
+The wifi did not work at all - this was extremely disappointing. I'm a platinum member and have come accustom to the high speed network offered as a Platinum member with Marriott/SPG - what was disappointing here was that their standard internet did not work at all within the room. As someone who often works remotely - this is just not acceptable. I would have to come down to the lobby to do any work. I had multiple iOS &amp; Android phones to try, along with a tablet and laptop - I had no successful connection. This unreliability of their network offering would make me never choose SpringHill Suites again in the future. This is a very important standard for any hotel I select. 
+The hotel doesn't seem to be set up with their mobile app, as requesting for towels from the app never came. We were further disrupted with a call from the front desk if a 911 call had been placed from our room - when we never had made any call - just a request through the app. This lead to a lot of confusion &amp; disruption.
+The standard: The room was a decent size,...I'm typically quite forgiving of most hotels but I wish I had booked elsewhere.The downside: The room had a terrible smell the whole time, it was a very musty smell - it made returning to the room a disappointment each time. The wifi did not work at all - this was extremely disappointing. I'm a platinum member and have come accustom to the high speed network offered as a Platinum member with Marriott/SPG - what was disappointing here was that their standard internet did not work at all within the room. As someone who often works remotely - this is just not acceptable. I would have to come down to the lobby to do any work. I had multiple iOS &amp; Android phones to try, along with a tablet and laptop - I had no successful connection. This unreliability of their network offering would make me never choose SpringHill Suites again in the future. This is a very important standard for any hotel I select. The hotel doesn't seem to be set up with their mobile app, as requesting for towels from the app never came. We were further disrupted with a call from the front desk if a 911 call had been placed from our room - when we never had made any call - just a request through the app. This lead to a lot of confusion &amp; disruption.The standard: The room was a decent size, and if your a family with kids I'd still recommend this hotel as it's low cost and has the sofa bed in the room. The shower/toilet combo is separate from the sink/vanity. The amenities - are bare, soap, shampoo (?) I'd recommend bringing your own. The front staff was as helpful as can be.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I'm typically quite forgiving of most hotels but I wish I had booked elsewhere.
+The downside: The room had a terrible smell the whole time, it was a very musty smell - it made returning to the room a disappointment each time. 
+The wifi did not work at all - this was extremely disappointing. I'm a platinum member and have come accustom to the high speed network offered as a Platinum member with Marriott/SPG - what was disappointing here was that their standard internet did not work at all within the room. As someone who often works remotely - this is just not acceptable. I would have to come down to the lobby to do any work. I had multiple iOS &amp; Android phones to try, along with a tablet and laptop - I had no successful connection. This unreliability of their network offering would make me never choose SpringHill Suites again in the future. This is a very important standard for any hotel I select. 
+The hotel doesn't seem to be set up with their mobile app, as requesting for towels from the app never came. We were further disrupted with a call from the front desk if a 911 call had been placed from our room - when we never had made any call - just a request through the app. This lead to a lot of confusion &amp; disruption.
+The standard: The room was a decent size,...I'm typically quite forgiving of most hotels but I wish I had booked elsewhere.The downside: The room had a terrible smell the whole time, it was a very musty smell - it made returning to the room a disappointment each time. The wifi did not work at all - this was extremely disappointing. I'm a platinum member and have come accustom to the high speed network offered as a Platinum member with Marriott/SPG - what was disappointing here was that their standard internet did not work at all within the room. As someone who often works remotely - this is just not acceptable. I would have to come down to the lobby to do any work. I had multiple iOS &amp; Android phones to try, along with a tablet and laptop - I had no successful connection. This unreliability of their network offering would make me never choose SpringHill Suites again in the future. This is a very important standard for any hotel I select. The hotel doesn't seem to be set up with their mobile app, as requesting for towels from the app never came. We were further disrupted with a call from the front desk if a 911 call had been placed from our room - when we never had made any call - just a request through the app. This lead to a lot of confusion &amp; disruption.The standard: The room was a decent size, and if your a family with kids I'd still recommend this hotel as it's low cost and has the sofa bed in the room. The shower/toilet combo is separate from the sink/vanity. The amenities - are bare, soap, shampoo (?) I'd recommend bringing your own. The front staff was as helpful as can be.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r538502466-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>538502466</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>Wedding Weekend</t>
+  </si>
+  <si>
+    <t>The Springhill Suites was a nice stay. The rooms were clean and smelled fresh. It was great being able to check in early so we could get ready for the wedding we were attending. They offered a workout room, pool, free breakfast, and more. Great stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r505878530-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>505878530</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>power outage, caring attitude outage as well</t>
+  </si>
+  <si>
+    <t>upon returning to Springhill suites after a day of sightseeing, found the hotel suffering from a power outage. normally no big deal but it's the staff's attitude made it unpleasant. when asked if they can assist to book at another Marriott hotel, the response is " if I give them the phone of the hotel'. I wonder why the hotel was not better prepared upon power outage and had some kind of contingency plan. I assume the hotel would have working relationship with other Marriott properties, especially in a major situation like this. I can't believe this is the Marriott's way of taking care of guests when there is a power outage.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>upon returning to Springhill suites after a day of sightseeing, found the hotel suffering from a power outage. normally no big deal but it's the staff's attitude made it unpleasant. when asked if they can assist to book at another Marriott hotel, the response is " if I give them the phone of the hotel'. I wonder why the hotel was not better prepared upon power outage and had some kind of contingency plan. I assume the hotel would have working relationship with other Marriott properties, especially in a major situation like this. I can't believe this is the Marriott's way of taking care of guests when there is a power outage.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r500545251-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>500545251</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice Hotel in South Houston </t>
+  </si>
+  <si>
+    <t>I just stayed in this Pearland hotel for business. It was clean, quiet and good value. It had the amenities you would expect in a mid-range hotel such as refrigerator, microwave, and free breakfast. The parking is easy and convenient to the rooms. It is only an exit from a shopping mall and lots of restaurants. I highly recommend staying here if you need something near Houston. It is not far from the Minute Maid Astros stadium too.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r486275369-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>486275369</t>
+  </si>
+  <si>
+    <t>05/21/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almost prefect </t>
+  </si>
+  <si>
+    <t>Stayed here 4 nights. I am becoming a fan of The Springhill Suite Hotels. This is my second one. I love the suite area. Perfect for getting work done. I only wish the shower was separate. Breakfast is nice quality..waffles,meats,eggs etc... The front desk staff Ibgive 5+ pleasant and very helpful.The manager went out of his way and helped me with a birthday surprise. The only thing that bothered me was telling the cleaning lady to come back later, again and again. About 4 times. I was very happy with out stay and will seek out Springhill Suites when we travel.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r443019776-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>443019776</t>
+  </si>
+  <si>
+    <t>12/09/2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel.</t>
+  </si>
+  <si>
+    <t>I stayed with family at this hotel due to a funeral. We had family across the country stay at this hotel also. The hotel was very nice and clean. Julie at the front desk was very kind and accommodating- although this was not a happy occasion to be in TX, this hotel and staff helped make the stay enjoyable. I was weary after reading the previous reviews, but since all the renovations were done, the hotel is very modern looking. I checked my bed for any bugs prior to sleeping and it was clean (traveled with kids). Breakfast was decent for a 3 day stay. I took some pics of what we had. Also a pic of the elevator area. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>I stayed with family at this hotel due to a funeral. We had family across the country stay at this hotel also. The hotel was very nice and clean. Julie at the front desk was very kind and accommodating- although this was not a happy occasion to be in TX, this hotel and staff helped make the stay enjoyable. I was weary after reading the previous reviews, but since all the renovations were done, the hotel is very modern looking. I checked my bed for any bugs prior to sleeping and it was clean (traveled with kids). Breakfast was decent for a 3 day stay. I took some pics of what we had. Also a pic of the elevator area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r433816268-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>433816268</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>Fantastic hotel!</t>
+  </si>
+  <si>
+    <t>Really enjoyed our stay! Beds were so comfortable, rooms clean and fresh smelling, air conditioner on tiptop shape. This suite lived up to its billing. Complimentary nreakfast was plentiful and fresh. Staff was professional and very pleasant. They were even able to give us directions to a nearby carwash and didn't act as if we offended them.by asking. If I could give them 10 stars I would..Great hotel. I will make this my preferred place to stay when visiting in this area!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r424535715-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>424535715</t>
+  </si>
+  <si>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t>Great place to end a long day of travel</t>
+  </si>
+  <si>
+    <t>Second stay at this SpringHill Suites and it is a great place to end your day.Clean, convenient and comfortable.Close to a number of great dining options.All the people are very friendly.Highly recommend this for a Houston business trip.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r358479791-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>358479791</t>
+  </si>
+  <si>
+    <t>03/25/2016</t>
+  </si>
+  <si>
+    <t>Decent Hotel for a Leisure Visit</t>
+  </si>
+  <si>
+    <t>I don't travel too much, so, I'm pretty paranoid when I have to book a room. My biggest concern is not booking a "lemon" and wasting money. By the time I fought the Houston traffic I was exhausted and very frustrated. When I finally found the hotel the grounds were nice but you're met by a big metal dumpster at the entrance of the hotel. Inside, the reception area was clean and quiet. There were two receptionists. The one assisting customers didn't have much personality and didn't smile. They did, however, direct me to a few area restaurants. I also had an issue with my curtains and they were pleasant enough to come help me pretty late in the evening. The hallway I was on was undergoing construction, which according to the website, shouldn't have occurred. It said guests would be in rooms that were not on a construction floor. So, there was a little construction dust at the entrance of the hallway, but, nothing near my room. Overall, my hallway was very quiet. I was pleasantly surprised. My room was clean and quiet, too. I had no sign of dust or bugs. However, I could tell why they were upgrading the rooms. They were just a bit outdated. However, cleanliness was the most important detail for me. I was not in my room, for the most part, during the day. But, for the time I was there the room...I don't travel too much, so, I'm pretty paranoid when I have to book a room. My biggest concern is not booking a "lemon" and wasting money. By the time I fought the Houston traffic I was exhausted and very frustrated. When I finally found the hotel the grounds were nice but you're met by a big metal dumpster at the entrance of the hotel. Inside, the reception area was clean and quiet. There were two receptionists. The one assisting customers didn't have much personality and didn't smile. They did, however, direct me to a few area restaurants. I also had an issue with my curtains and they were pleasant enough to come help me pretty late in the evening. The hallway I was on was undergoing construction, which according to the website, shouldn't have occurred. It said guests would be in rooms that were not on a construction floor. So, there was a little construction dust at the entrance of the hallway, but, nothing near my room. Overall, my hallway was very quiet. I was pleasantly surprised. My room was clean and quiet, too. I had no sign of dust or bugs. However, I could tell why they were upgrading the rooms. They were just a bit outdated. However, cleanliness was the most important detail for me. I was not in my room, for the most part, during the day. But, for the time I was there the room served its purpose. I particularly appreciated that the parking lot was well lit and I felt safe going to and from my vehicle day and night. The last day of my trip I noticed that housekeeping restocked the room and fixed the covers but she didn't change my bedding. I know that because there was a little stain I made on the white blanket. And when I returned later in the day it was still there on a nicely made bed. I also thought the size of the pillows on the bed were awkward. They were half the size of a regular pillow...I've never seen that before. And, for the price of the room, I surely should have had a "full size" pillow. The last thing that I would add is that I requested, when I booked the room, to check out around 3:00am. My flight left around 5:00am. When I went to the front desk the receptionist told me that she was "performing audits" and was unable to check me out at that time. I was a bit baffled because I needed to leave right then. She did offer to check me out herself after the "audit" was done and send me an email confirming. I agreed and gave her my keys. When I arrived home there was no email. So, I called the hotel the next day and, oddly enough, got the same receptionist on the phone. She said the check-out was successful and she did send me an email once I requested it again. Overall, this hotel is average in my opinion. For the nightly rate I had higher expectations. There was nothing that made it stand out from other hotels. But, if anything, the construction wasn't very pleasant. However, it didn't necessarily hinder my experience in any way.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Rushi P, Manager at SpringHill Suites Houston Pearland, responded to this reviewResponded March 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2016</t>
+  </si>
+  <si>
+    <t>I don't travel too much, so, I'm pretty paranoid when I have to book a room. My biggest concern is not booking a "lemon" and wasting money. By the time I fought the Houston traffic I was exhausted and very frustrated. When I finally found the hotel the grounds were nice but you're met by a big metal dumpster at the entrance of the hotel. Inside, the reception area was clean and quiet. There were two receptionists. The one assisting customers didn't have much personality and didn't smile. They did, however, direct me to a few area restaurants. I also had an issue with my curtains and they were pleasant enough to come help me pretty late in the evening. The hallway I was on was undergoing construction, which according to the website, shouldn't have occurred. It said guests would be in rooms that were not on a construction floor. So, there was a little construction dust at the entrance of the hallway, but, nothing near my room. Overall, my hallway was very quiet. I was pleasantly surprised. My room was clean and quiet, too. I had no sign of dust or bugs. However, I could tell why they were upgrading the rooms. They were just a bit outdated. However, cleanliness was the most important detail for me. I was not in my room, for the most part, during the day. But, for the time I was there the room...I don't travel too much, so, I'm pretty paranoid when I have to book a room. My biggest concern is not booking a "lemon" and wasting money. By the time I fought the Houston traffic I was exhausted and very frustrated. When I finally found the hotel the grounds were nice but you're met by a big metal dumpster at the entrance of the hotel. Inside, the reception area was clean and quiet. There were two receptionists. The one assisting customers didn't have much personality and didn't smile. They did, however, direct me to a few area restaurants. I also had an issue with my curtains and they were pleasant enough to come help me pretty late in the evening. The hallway I was on was undergoing construction, which according to the website, shouldn't have occurred. It said guests would be in rooms that were not on a construction floor. So, there was a little construction dust at the entrance of the hallway, but, nothing near my room. Overall, my hallway was very quiet. I was pleasantly surprised. My room was clean and quiet, too. I had no sign of dust or bugs. However, I could tell why they were upgrading the rooms. They were just a bit outdated. However, cleanliness was the most important detail for me. I was not in my room, for the most part, during the day. But, for the time I was there the room served its purpose. I particularly appreciated that the parking lot was well lit and I felt safe going to and from my vehicle day and night. The last day of my trip I noticed that housekeeping restocked the room and fixed the covers but she didn't change my bedding. I know that because there was a little stain I made on the white blanket. And when I returned later in the day it was still there on a nicely made bed. I also thought the size of the pillows on the bed were awkward. They were half the size of a regular pillow...I've never seen that before. And, for the price of the room, I surely should have had a "full size" pillow. The last thing that I would add is that I requested, when I booked the room, to check out around 3:00am. My flight left around 5:00am. When I went to the front desk the receptionist told me that she was "performing audits" and was unable to check me out at that time. I was a bit baffled because I needed to leave right then. She did offer to check me out herself after the "audit" was done and send me an email confirming. I agreed and gave her my keys. When I arrived home there was no email. So, I called the hotel the next day and, oddly enough, got the same receptionist on the phone. She said the check-out was successful and she did send me an email once I requested it again. Overall, this hotel is average in my opinion. For the nightly rate I had higher expectations. There was nothing that made it stand out from other hotels. But, if anything, the construction wasn't very pleasant. However, it didn't necessarily hinder my experience in any way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r358276848-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>358276848</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>Business visit.</t>
+  </si>
+  <si>
+    <t>I booked the Springhill Suite Marriott accommodation believing that MARRIOTT are good at what they do and assuming the standards would be universal. WRONG! 
+After I spent 4 hours driving with the last hour stressing through the Houston Highway madness. I arrived to be greeted by a building site. The builders simply were doing their highly noisy, dusty work right in the way of the guests trying to check in. I nearly jumped right out of my skin when a board or some building material was dropped right behind me as I checked in. Then I was nearly knocked off my feet by a burly construction worker hurtling down the corridors as I tried to make my way down the dusty hallway to the lift. 
+I complained to the staff on duty that this level of construction warranted the closing of the premises, only to to be told sorry. The same happened in the morning when I tried to move down the hall to the breakfast room. I had to navigate past drilling construction workers. 
+Then finally when I was on my way to leave, I had to actually ask to be allowed to pass so I could get my bag past the big man on the ladder drilling into the wall. 
+The office staff made NO effort to contact me or make my stay easier and I was unfortunately not able to simply change hotels since I had meetings...I booked the Springhill Suite Marriott accommodation believing that MARRIOTT are good at what they do and assuming the standards would be universal. WRONG! After I spent 4 hours driving with the last hour stressing through the Houston Highway madness. I arrived to be greeted by a building site. The builders simply were doing their highly noisy, dusty work right in the way of the guests trying to check in. I nearly jumped right out of my skin when a board or some building material was dropped right behind me as I checked in. Then I was nearly knocked off my feet by a burly construction worker hurtling down the corridors as I tried to make my way down the dusty hallway to the lift. I complained to the staff on duty that this level of construction warranted the closing of the premises, only to to be told sorry. The same happened in the morning when I tried to move down the hall to the breakfast room. I had to navigate past drilling construction workers. Then finally when I was on my way to leave, I had to actually ask to be allowed to pass so I could get my bag past the big man on the ladder drilling into the wall. The office staff made NO effort to contact me or make my stay easier and I was unfortunately not able to simply change hotels since I had meetings immediately after my arrival and did not have the energy afterwards. I even had to insist that I be allowed to stay in my room while waiting for my transport to the airport. Having been told I can wait in the back room being used as a breakfast area since I should be out of my room by 1pm. Worst of all is that I called ahead 2 weeks before my ETA to confirm my booking and at no time was I warned of the intense inconvenience. Other than the small note on the booking that said there was going to be a little dust around because there was work going on. Not that they had ripped out the entrance and Longue area and would be conducting full construction in the public areas!! MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked the Springhill Suite Marriott accommodation believing that MARRIOTT are good at what they do and assuming the standards would be universal. WRONG! 
+After I spent 4 hours driving with the last hour stressing through the Houston Highway madness. I arrived to be greeted by a building site. The builders simply were doing their highly noisy, dusty work right in the way of the guests trying to check in. I nearly jumped right out of my skin when a board or some building material was dropped right behind me as I checked in. Then I was nearly knocked off my feet by a burly construction worker hurtling down the corridors as I tried to make my way down the dusty hallway to the lift. 
+I complained to the staff on duty that this level of construction warranted the closing of the premises, only to to be told sorry. The same happened in the morning when I tried to move down the hall to the breakfast room. I had to navigate past drilling construction workers. 
+Then finally when I was on my way to leave, I had to actually ask to be allowed to pass so I could get my bag past the big man on the ladder drilling into the wall. 
+The office staff made NO effort to contact me or make my stay easier and I was unfortunately not able to simply change hotels since I had meetings...I booked the Springhill Suite Marriott accommodation believing that MARRIOTT are good at what they do and assuming the standards would be universal. WRONG! After I spent 4 hours driving with the last hour stressing through the Houston Highway madness. I arrived to be greeted by a building site. The builders simply were doing their highly noisy, dusty work right in the way of the guests trying to check in. I nearly jumped right out of my skin when a board or some building material was dropped right behind me as I checked in. Then I was nearly knocked off my feet by a burly construction worker hurtling down the corridors as I tried to make my way down the dusty hallway to the lift. I complained to the staff on duty that this level of construction warranted the closing of the premises, only to to be told sorry. The same happened in the morning when I tried to move down the hall to the breakfast room. I had to navigate past drilling construction workers. Then finally when I was on my way to leave, I had to actually ask to be allowed to pass so I could get my bag past the big man on the ladder drilling into the wall. The office staff made NO effort to contact me or make my stay easier and I was unfortunately not able to simply change hotels since I had meetings immediately after my arrival and did not have the energy afterwards. I even had to insist that I be allowed to stay in my room while waiting for my transport to the airport. Having been told I can wait in the back room being used as a breakfast area since I should be out of my room by 1pm. Worst of all is that I called ahead 2 weeks before my ETA to confirm my booking and at no time was I warned of the intense inconvenience. Other than the small note on the booking that said there was going to be a little dust around because there was work going on. Not that they had ripped out the entrance and Longue area and would be conducting full construction in the public areas!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r353582547-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>353582547</t>
+  </si>
+  <si>
+    <t>03/07/2016</t>
+  </si>
+  <si>
+    <t>Bed Bugs...Need I Say More?</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for one night, it's considered 3-star, one of the best in Pearland, blah, blah, blah and I would have agreed had I not had to wake up with this bug in my bed. The hotel is nice, the check in was easy, the room was nice and appeared clean and I would have left them a very good review had I not had to wake up the next morning to what I think is a bed bug (really any bug in my bed it absolutely disgusting) and bites on my leg. This is exactly why people hate staying in hotels and I am one of those people. Instead of checking out and going to lunch with a friend as I had planned, I had to go straight home, take all of my clothes (including clothes that  are dry clean only) and put them directly into the washer for a long wash and then the dryer. I had to bath and wash my hair, put my bags out on my back porch, etc. and it really just threw off my entire day. Because I booked the room through Priceline, the hotel did little more than give me the managers name (who was not it) and tell me to call the manager, which I didn't because...why should I have to call the manager? If you have a guest that is reporting bed bugs in your hotel, why...I stayed in this hotel for one night, it's considered 3-star, one of the best in Pearland, blah, blah, blah and I would have agreed had I not had to wake up with this bug in my bed. The hotel is nice, the check in was easy, the room was nice and appeared clean and I would have left them a very good review had I not had to wake up the next morning to what I think is a bed bug (really any bug in my bed it absolutely disgusting) and bites on my leg. This is exactly why people hate staying in hotels and I am one of those people. Instead of checking out and going to lunch with a friend as I had planned, I had to go straight home, take all of my clothes (including clothes that  are dry clean only) and put them directly into the washer for a long wash and then the dryer. I had to bath and wash my hair, put my bags out on my back porch, etc. and it really just threw off my entire day. Because I booked the room through Priceline, the hotel did little more than give me the managers name (who was not it) and tell me to call the manager, which I didn't because...why should I have to call the manager? If you have a guest that is reporting bed bugs in your hotel, why wouldn't the manager take the initiative to contact the guest? Making sure bed bug issues are resolved is the hotel's responsibility, not mine. I called Priceline in order to get a refund, but they called the hotel and once again the manager was not in, therefore they will have to get back to me. If I get a refund, great, if not, at least I am able to let you guys know the dangers.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rushi P, Manager at SpringHill Suites Houston Pearland, responded to this reviewResponded March 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2016</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for one night, it's considered 3-star, one of the best in Pearland, blah, blah, blah and I would have agreed had I not had to wake up with this bug in my bed. The hotel is nice, the check in was easy, the room was nice and appeared clean and I would have left them a very good review had I not had to wake up the next morning to what I think is a bed bug (really any bug in my bed it absolutely disgusting) and bites on my leg. This is exactly why people hate staying in hotels and I am one of those people. Instead of checking out and going to lunch with a friend as I had planned, I had to go straight home, take all of my clothes (including clothes that  are dry clean only) and put them directly into the washer for a long wash and then the dryer. I had to bath and wash my hair, put my bags out on my back porch, etc. and it really just threw off my entire day. Because I booked the room through Priceline, the hotel did little more than give me the managers name (who was not it) and tell me to call the manager, which I didn't because...why should I have to call the manager? If you have a guest that is reporting bed bugs in your hotel, why...I stayed in this hotel for one night, it's considered 3-star, one of the best in Pearland, blah, blah, blah and I would have agreed had I not had to wake up with this bug in my bed. The hotel is nice, the check in was easy, the room was nice and appeared clean and I would have left them a very good review had I not had to wake up the next morning to what I think is a bed bug (really any bug in my bed it absolutely disgusting) and bites on my leg. This is exactly why people hate staying in hotels and I am one of those people. Instead of checking out and going to lunch with a friend as I had planned, I had to go straight home, take all of my clothes (including clothes that  are dry clean only) and put them directly into the washer for a long wash and then the dryer. I had to bath and wash my hair, put my bags out on my back porch, etc. and it really just threw off my entire day. Because I booked the room through Priceline, the hotel did little more than give me the managers name (who was not it) and tell me to call the manager, which I didn't because...why should I have to call the manager? If you have a guest that is reporting bed bugs in your hotel, why wouldn't the manager take the initiative to contact the guest? Making sure bed bug issues are resolved is the hotel's responsibility, not mine. I called Priceline in order to get a refund, but they called the hotel and once again the manager was not in, therefore they will have to get back to me. If I get a refund, great, if not, at least I am able to let you guys know the dangers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r346410921-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>346410921</t>
+  </si>
+  <si>
+    <t>02/09/2016</t>
+  </si>
+  <si>
+    <t>Mediocre</t>
+  </si>
+  <si>
+    <t>I am a faithful Marriott Rewards Member and I was utterly disappointed with my visit to this location. First of all, I was in Houston for the Funeral of my Favorite Aunt so I was sad to begin with. Also Delta Airlines lost my Luggage. Incidentally, all I wanted to do was check into my Hotel, relax and cry myself to sleep.
+ When I walked into the Lobby, the Man who I assume was the receptionist( he was not behind the counter, he was in a sitting area),   was licking his fingers eating his "lunch" I guess? It was around 12:30 AM. He asked me if I needed help. Um no I'm just standing here for nothing. Anyway, my check in was quick he didn't say much. He gave me a room on the 1st floor. I asked him if he had anything on a higher floor, (which my account already has noted) he said they were renovating and the 1st floor would be best for me. I took my keys and walked down to the very last room down the hall from the Lobby only to find out my keys didn't work. So I walked ALL the way back for him to re-key my keys. The room was clean. I had about 5 mini pillows on my bed. Not 1 regular size pillow. I was right by the back door which was so loud, I jumped out of my...I am a faithful Marriott Rewards Member and I was utterly disappointed with my visit to this location. First of all, I was in Houston for the Funeral of my Favorite Aunt so I was sad to begin with. Also Delta Airlines lost my Luggage. Incidentally, all I wanted to do was check into my Hotel, relax and cry myself to sleep. When I walked into the Lobby, the Man who I assume was the receptionist( he was not behind the counter, he was in a sitting area),   was licking his fingers eating his "lunch" I guess? It was around 12:30 AM. He asked me if I needed help. Um no I'm just standing here for nothing. Anyway, my check in was quick he didn't say much. He gave me a room on the 1st floor. I asked him if he had anything on a higher floor, (which my account already has noted) he said they were renovating and the 1st floor would be best for me. I took my keys and walked down to the very last room down the hall from the Lobby only to find out my keys didn't work. So I walked ALL the way back for him to re-key my keys. The room was clean. I had about 5 mini pillows on my bed. Not 1 regular size pillow. I was right by the back door which was so loud, I jumped out of my sleep every time it shut.The Internet was nonexistent as well. I called the front desk and asked them to inform me when my bag arrived from Delta. I received a text from Delta saying they had delivered my bag at 4:30. I called the front desk when I was available, which was around 5:30 to ask if my bag had been delivered, a Young Lady said yes they JUST delivered  it. I knew that was a lie. The  Lawn people came and cut the grass at 8 in the morning, so I woke up to a very loud lawn mower. I'm glad they are renovating the rooms but that's not what needs work in this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Rushi P, Manager at SpringHill Suites Houston Pearland, responded to this reviewResponded February 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2016</t>
+  </si>
+  <si>
+    <t>I am a faithful Marriott Rewards Member and I was utterly disappointed with my visit to this location. First of all, I was in Houston for the Funeral of my Favorite Aunt so I was sad to begin with. Also Delta Airlines lost my Luggage. Incidentally, all I wanted to do was check into my Hotel, relax and cry myself to sleep.
+ When I walked into the Lobby, the Man who I assume was the receptionist( he was not behind the counter, he was in a sitting area),   was licking his fingers eating his "lunch" I guess? It was around 12:30 AM. He asked me if I needed help. Um no I'm just standing here for nothing. Anyway, my check in was quick he didn't say much. He gave me a room on the 1st floor. I asked him if he had anything on a higher floor, (which my account already has noted) he said they were renovating and the 1st floor would be best for me. I took my keys and walked down to the very last room down the hall from the Lobby only to find out my keys didn't work. So I walked ALL the way back for him to re-key my keys. The room was clean. I had about 5 mini pillows on my bed. Not 1 regular size pillow. I was right by the back door which was so loud, I jumped out of my...I am a faithful Marriott Rewards Member and I was utterly disappointed with my visit to this location. First of all, I was in Houston for the Funeral of my Favorite Aunt so I was sad to begin with. Also Delta Airlines lost my Luggage. Incidentally, all I wanted to do was check into my Hotel, relax and cry myself to sleep. When I walked into the Lobby, the Man who I assume was the receptionist( he was not behind the counter, he was in a sitting area),   was licking his fingers eating his "lunch" I guess? It was around 12:30 AM. He asked me if I needed help. Um no I'm just standing here for nothing. Anyway, my check in was quick he didn't say much. He gave me a room on the 1st floor. I asked him if he had anything on a higher floor, (which my account already has noted) he said they were renovating and the 1st floor would be best for me. I took my keys and walked down to the very last room down the hall from the Lobby only to find out my keys didn't work. So I walked ALL the way back for him to re-key my keys. The room was clean. I had about 5 mini pillows on my bed. Not 1 regular size pillow. I was right by the back door which was so loud, I jumped out of my sleep every time it shut.The Internet was nonexistent as well. I called the front desk and asked them to inform me when my bag arrived from Delta. I received a text from Delta saying they had delivered my bag at 4:30. I called the front desk when I was available, which was around 5:30 to ask if my bag had been delivered, a Young Lady said yes they JUST delivered  it. I knew that was a lie. The  Lawn people came and cut the grass at 8 in the morning, so I woke up to a very loud lawn mower. I'm glad they are renovating the rooms but that's not what needs work in this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r345924255-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>345924255</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t>Getting updated but comfy</t>
+  </si>
+  <si>
+    <t>The hotel lobby is nice.  Front desk friendly but not personable.  Breakfast was fabulous. Eggs (not fake tasting), waffles and oatmeal. Beds very comfortable with sufficient pillows. As stated it is being updated which started at 8am on Saturday morning.  We were already up but might be a surprise.  We're warned that they are updating but a little more information maybe necessary.  Also our heater/ac me owed when it was done running.  Not annoying but made us laugh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r325809744-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>325809744</t>
+  </si>
+  <si>
+    <t>11/10/2015</t>
+  </si>
+  <si>
+    <t>Our Trip South</t>
+  </si>
+  <si>
+    <t>Room was very nice, view was average, clean and tidy both inside and grounds.Accesible  both inside and out.  Interstate very close by.  Staff very friendly and polite.Great breakfast.  Priced OK. Would stay again for sure.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r310609102-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>310609102</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Clean, safe and accomodating</t>
+  </si>
+  <si>
+    <t>The room was very clean - I'm completely anal about having a clean room and bedcovers and they met my standards. The location was nice because Pearland turned out to be a sweet, quiet, up and coming area with some great parks and convenient places to eat. We were no more than a 30 minute drive from the attractions we came to Houston to see (Aquarium and Space Center). Easy access to highways and toll roads. The staff were friendly and helpful, the pool was clean. It was a pleasant surprise to find this hotel and we'll go back again. I didnt take photos - it's just a place to sleep. Well, free breakfast too if you're a very early worm.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>The room was very clean - I'm completely anal about having a clean room and bedcovers and they met my standards. The location was nice because Pearland turned out to be a sweet, quiet, up and coming area with some great parks and convenient places to eat. We were no more than a 30 minute drive from the attractions we came to Houston to see (Aquarium and Space Center). Easy access to highways and toll roads. The staff were friendly and helpful, the pool was clean. It was a pleasant surprise to find this hotel and we'll go back again. I didnt take photos - it's just a place to sleep. Well, free breakfast too if you're a very early worm.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r309308729-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>309308729</t>
+  </si>
+  <si>
+    <t>09/11/2015</t>
+  </si>
+  <si>
+    <t>Good Hotel, staff and location</t>
+  </si>
+  <si>
+    <t>The rooms were very nice and spacious. The manager and staff were very accommodating.  The location is very close to restaurants and shopping and only 15 minutes from downtown Houston.  We had both the King and Queen/Queen suites which were very well laid out and we had plenty of room.  They provided Paul Mitchell products.  The breakfast was very good and had plenty of variety including eggs, bacon, bisquits and gravy, etc.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r284216929-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>284216929</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Terrible Stay</t>
+  </si>
+  <si>
+    <t>I recently stayed here 6-26/6/28 for a family reunion and would have checked out early  if I found another hotel in the area.After checking in on 6-26 the lights in the hotels cut off four times. After calling the front desk to find out what was causing the problem I was told it was nothing they could do basically saying I could care less.The pool is very small and the breakfast was mediocre.as a marriott rewards member I would definitely not stay here again</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r258689036-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>258689036</t>
+  </si>
+  <si>
+    <t>03/09/2015</t>
+  </si>
+  <si>
+    <t>Just stayed one night</t>
+  </si>
+  <si>
+    <t>It was overall a decent hotel, and the breakfast was just average though. Disappointed they didn't offer scrambled eggs. And the kitchen staff workers quickly started putting away the breakfast items about 5 minutes before the breakfast cut off time which was supposed to be 10:00am. Anyhow, they acted pretty rude about it to -- like they didn't even have to acknowledge that some people may be coming down stairs to still grab a bite before 10:00am.    I've stayed in a few SpringHill Suites before, and I got to say that I had the absolute worse low back pain I've ever had in the morning after sleeping on that extremely soft bed that sunk in and gave no back support at all. The room size was decent and room was clean upon arrival. The bathroom could use some re-chalking though.  Glad it was I only had to stay one night there though, because my back hurt so much the next morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>It was overall a decent hotel, and the breakfast was just average though. Disappointed they didn't offer scrambled eggs. And the kitchen staff workers quickly started putting away the breakfast items about 5 minutes before the breakfast cut off time which was supposed to be 10:00am. Anyhow, they acted pretty rude about it to -- like they didn't even have to acknowledge that some people may be coming down stairs to still grab a bite before 10:00am.    I've stayed in a few SpringHill Suites before, and I got to say that I had the absolute worse low back pain I've ever had in the morning after sleeping on that extremely soft bed that sunk in and gave no back support at all. The room size was decent and room was clean upon arrival. The bathroom could use some re-chalking though.  Glad it was I only had to stay one night there though, because my back hurt so much the next morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r247258858-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>247258858</t>
+  </si>
+  <si>
+    <t>01/03/2015</t>
+  </si>
+  <si>
+    <t>NOT PET FRIENDLY</t>
+  </si>
+  <si>
+    <t>Thought it would be convenient for family to stay close to us here but found out it is not pet friendly.  TripAdvisor was wrong on listing it as such. Disappointing bc we mentioned they should bring their dog and they did.Just wanted to warn those that thought or will think that it is pet friendly. MoreShow less</t>
+  </si>
+  <si>
+    <t>Rushi P, Manager at SpringHill Suites Houston Pearland, responded to this reviewResponded January 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2015</t>
+  </si>
+  <si>
+    <t>Thought it would be convenient for family to stay close to us here but found out it is not pet friendly.  TripAdvisor was wrong on listing it as such. Disappointing bc we mentioned they should bring their dog and they did.Just wanted to warn those that thought or will think that it is pet friendly. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r242854812-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>242854812</t>
+  </si>
+  <si>
+    <t>12/03/2014</t>
+  </si>
+  <si>
+    <t>Could be better, but wasn't bad</t>
+  </si>
+  <si>
+    <t>This hotel seems like it needs a little refreshThe staff is helpful and friendlyThe work out room is a step above not worth itThe pool is a little exposed to the parking lot, but safeThe breakfast is not the best I've had at SpringHill SuitesParking is plentiful and it's just off the highway within 5 miles of lots a restaurantsThe internet was fast and dependable and the TV is HDMI friendly (chromecast, etc.)MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Rushi P, General Manager at SpringHill Suites Houston Pearland, responded to this reviewResponded December 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2014</t>
+  </si>
+  <si>
+    <t>This hotel seems like it needs a little refreshThe staff is helpful and friendlyThe work out room is a step above not worth itThe pool is a little exposed to the parking lot, but safeThe breakfast is not the best I've had at SpringHill SuitesParking is plentiful and it's just off the highway within 5 miles of lots a restaurantsThe internet was fast and dependable and the TV is HDMI friendly (chromecast, etc.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r207536216-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>207536216</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Dont ever stay threre</t>
+  </si>
+  <si>
+    <t>Will not ever stay there again . First the shower want work second they rent room to dopers that party all night keeping everyone awake told front desk they dont care Days Inn &amp; Suites Duncan/Spartanburg MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Rushi P, Manager at SpringHill Suites Houston Pearland, responded to this reviewResponded June 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2014</t>
+  </si>
+  <si>
+    <t>Will not ever stay there again . First the shower want work second they rent room to dopers that party all night keeping everyone awake told front desk they dont care Days Inn &amp; Suites Duncan/Spartanburg More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r205387987-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>205387987</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Comfortable stay - GREAT breakfast</t>
+  </si>
+  <si>
+    <t>This appears to be an older hotel that has been well renovated.  My husband and I stayed here using Marriott Rewards points when he had an early morning medical appointment in Pearland.  We enjoyed the large room and relaxing in the living area.  The bed was very comfortable and the room was clean and quiet.  There is ample parking.  I thoroughly enjoyed the full breakfast buffet - hot scrambled eggs, bacon, biscuits, a choice of toppings, a variety of cereal, pastries, fruit and yogurt.  We would stay here again.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r199412461-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>199412461</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>If you are in the Pearland, Fresno area, this hotel I can recommend. I honestly can't say anything bad about the hotel. The only thing I found that I dislike is that I prefer an indoor pool and this one is outdoors. Other than that, the staff was friendly, answered any questions I had. The room was nice and clean, and  the complimentary breakfast was nice.  So  nothing spectacular, nor nothing to complain about. If I had to do it again, I would certainly without a doubt make a stay here.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r195079996-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>195079996</t>
+  </si>
+  <si>
+    <t>02/23/2014</t>
+  </si>
+  <si>
+    <t>Nice little hideaway</t>
+  </si>
+  <si>
+    <t>I just left the hotel and had to review immediately after having a full breakfast that was included in the very reasonable price of our accommodation. The hotel itself is very clean and I swear they pump in fresh clean air to keep the hotel cozy, not sterile. The staff are very kind and greet you coming and going. Our room faced a major freeway and I couldn't hear the traffic! I also didn't hear my neighbors. Great stay and would recommend the hotel if you're in the area.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r191518111-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>191518111</t>
+  </si>
+  <si>
+    <t>01/20/2014</t>
+  </si>
+  <si>
+    <t>Average Facility, indifferent staff.</t>
+  </si>
+  <si>
+    <t>My son and I stayed here for his swim team meet for 2 nights. The hotel is about 10 miles from the Pearland Recreation center and feels much further due to internal roads. 
+This was my first time staying at SpringHill. We had a queen suite - has 2 queen beds. We are used to the space of the Residence Inn and were surprised by how small this feels comparatively. The bathroom and the vanity area are small. There is hardly any counter space. 
+I am a Marriott Silver Elite member and one of the great benefits I enjoy is late checkout. I asked the front desk about a 2-3 hr extension and they said they don’t participate in it and maximum they can extend it by an hour. Anything else would be a full night charge. I have stayed at many Marriott properties and this is the first one that said they don’t participate in the Late Checkout program for the elite members. I would be logging a complaint about it with Marriott for sure. I mentioned that to the front desk and they were very indifferent to it with the "go ahead" we don’t care attitude. To say the least I was very surprised. Needless to say I won’t be staying here on my next visit.
+They do have free breakfast. It is quite limited. The first morning of our stay, they had no eggs at all. 
+On...My son and I stayed here for his swim team meet for 2 nights. The hotel is about 10 miles from the Pearland Recreation center and feels much further due to internal roads. This was my first time staying at SpringHill. We had a queen suite - has 2 queen beds. We are used to the space of the Residence Inn and were surprised by how small this feels comparatively. The bathroom and the vanity area are small. There is hardly any counter space. I am a Marriott Silver Elite member and one of the great benefits I enjoy is late checkout. I asked the front desk about a 2-3 hr extension and they said they don’t participate in it and maximum they can extend it by an hour. Anything else would be a full night charge. I have stayed at many Marriott properties and this is the first one that said they don’t participate in the Late Checkout program for the elite members. I would be logging a complaint about it with Marriott for sure. I mentioned that to the front desk and they were very indifferent to it with the "go ahead" we don’t care attitude. To say the least I was very surprised. Needless to say I won’t be staying here on my next visit.They do have free breakfast. It is quite limited. The first morning of our stay, they had no eggs at all. On the positive side the facility is close by restaurants. Olive garden and a few other restaurants are within 2 miles.  It is relatively clean and well kept.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>My son and I stayed here for his swim team meet for 2 nights. The hotel is about 10 miles from the Pearland Recreation center and feels much further due to internal roads. 
+This was my first time staying at SpringHill. We had a queen suite - has 2 queen beds. We are used to the space of the Residence Inn and were surprised by how small this feels comparatively. The bathroom and the vanity area are small. There is hardly any counter space. 
+I am a Marriott Silver Elite member and one of the great benefits I enjoy is late checkout. I asked the front desk about a 2-3 hr extension and they said they don’t participate in it and maximum they can extend it by an hour. Anything else would be a full night charge. I have stayed at many Marriott properties and this is the first one that said they don’t participate in the Late Checkout program for the elite members. I would be logging a complaint about it with Marriott for sure. I mentioned that to the front desk and they were very indifferent to it with the "go ahead" we don’t care attitude. To say the least I was very surprised. Needless to say I won’t be staying here on my next visit.
+They do have free breakfast. It is quite limited. The first morning of our stay, they had no eggs at all. 
+On...My son and I stayed here for his swim team meet for 2 nights. The hotel is about 10 miles from the Pearland Recreation center and feels much further due to internal roads. This was my first time staying at SpringHill. We had a queen suite - has 2 queen beds. We are used to the space of the Residence Inn and were surprised by how small this feels comparatively. The bathroom and the vanity area are small. There is hardly any counter space. I am a Marriott Silver Elite member and one of the great benefits I enjoy is late checkout. I asked the front desk about a 2-3 hr extension and they said they don’t participate in it and maximum they can extend it by an hour. Anything else would be a full night charge. I have stayed at many Marriott properties and this is the first one that said they don’t participate in the Late Checkout program for the elite members. I would be logging a complaint about it with Marriott for sure. I mentioned that to the front desk and they were very indifferent to it with the "go ahead" we don’t care attitude. To say the least I was very surprised. Needless to say I won’t be staying here on my next visit.They do have free breakfast. It is quite limited. The first morning of our stay, they had no eggs at all. On the positive side the facility is close by restaurants. Olive garden and a few other restaurants are within 2 miles.  It is relatively clean and well kept.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r190490031-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>190490031</t>
+  </si>
+  <si>
+    <t>01/11/2014</t>
+  </si>
+  <si>
+    <t>Average stay</t>
+  </si>
+  <si>
+    <t>My husband and kids stayed here for a 3 night getaway recently.  Jonathon helped us during check in and was very nice, offered the kids colors and coloring sheets.  The room was mostly clean, the bathroom was less than sparkling and could use a little extra attention other than a basic daily clean (dirty grout and baseboards).  The towels were just awful.  I don't consider myself to be a towel snob by any means but I don't even know how these absorbed any water, they were so thin and rough.  The beds were clean and comfortable.  The air/heater unit is a window unit that kicks on and off all night long which made sleeping for us a little difficult.  The free breakfast was very nice, plenty of hot and cold options.  But on our last morning there, even though it stays out until 9:30, there was an employee removing everything at 9:25 while guests were still trying to get something to eat.  She didn't seem to care, just kept removing everything.  The gym was nicely equipped and the free wifi was great and fast.  While this wasn't an absolutely terrible stay, I don't think I'd stay here again, there are many other options in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and kids stayed here for a 3 night getaway recently.  Jonathon helped us during check in and was very nice, offered the kids colors and coloring sheets.  The room was mostly clean, the bathroom was less than sparkling and could use a little extra attention other than a basic daily clean (dirty grout and baseboards).  The towels were just awful.  I don't consider myself to be a towel snob by any means but I don't even know how these absorbed any water, they were so thin and rough.  The beds were clean and comfortable.  The air/heater unit is a window unit that kicks on and off all night long which made sleeping for us a little difficult.  The free breakfast was very nice, plenty of hot and cold options.  But on our last morning there, even though it stays out until 9:30, there was an employee removing everything at 9:25 while guests were still trying to get something to eat.  She didn't seem to care, just kept removing everything.  The gym was nicely equipped and the free wifi was great and fast.  While this wasn't an absolutely terrible stay, I don't think I'd stay here again, there are many other options in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r157604284-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>157604284</t>
+  </si>
+  <si>
+    <t>04/13/2013</t>
+  </si>
+  <si>
+    <t>This hotel is outstanding in every aspect!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff is wonderful. We stayed over a week due to a job relocation. We have nothing but great things to say about this hotel. The manager, front desk staff, and housekeeping personnel were wonderful. They all made our stay so pleasant. Chandra at the front desk is one of the nicest people you could meet. If I walked into the lobby she immediately made sure there was fresh coffee for me. The room was spotless and clean. Springhill Suites Pearland, job well done!Thanks! The Vance's </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r153612403-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>153612403</t>
+  </si>
+  <si>
+    <t>03/03/2013</t>
+  </si>
+  <si>
+    <t>Strong air freshener smell.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The smell was a turn off as soon as I walked into the room. Not sure what smell they were trying to cover up with this strong perfume like fragrance. Their location is in Pearland which is a newer part of the town. Many restaurants and shopping near by. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r153222309-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>153222309</t>
+  </si>
+  <si>
+    <t>02/26/2013</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were in town for The Houston Livestock Show &amp; Rodeo, plus visiting friends. It was a super bed with great pillows. Coffee pot &amp; fridge in the room.  Had to have ice packs frozen for my meds &amp; the lobby attendant was gracious enough to put in employees freezer overnight for me. Woke to a great Continental Breakfast, was very fresh! Will stay again on next visit! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r147975894-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>147975894</t>
+  </si>
+  <si>
+    <t>12/23/2012</t>
+  </si>
+  <si>
+    <t>Good place to stay while visiting family in Pearland</t>
+  </si>
+  <si>
+    <t>Good place to stay while visiting family in Pearland. The beds were comfy, the breakfast was adequate and it had a nice fitness center. We stay at Marriott's all over the country and wish they would have a few more choices at breakfast like yogurt and different types of cereal.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r145606670-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>145606670</t>
+  </si>
+  <si>
+    <t>11/17/2012</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>Tried this hotel for the first time, no real issues. The water temp for the shower took a while to heat up, the place feels a bit dated. But the room was nice, quiet, good to have the fridge and microwave. The breakfast is great for the price range with fresh fruit cups, real oatmeal. The fitness room is okay. Staff is pretty friendly.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r141994143-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>141994143</t>
+  </si>
+  <si>
+    <t>10/04/2012</t>
+  </si>
+  <si>
+    <t>Granny Carol</t>
+  </si>
+  <si>
+    <t>We have stayed at Springhill Suites before. Enjoyed the nice breakfast, pillows and quite.The room had a small kitchen with fridge, microwave, sink. The only problem, water was not hot enough.This time it was to visit with family and see the new grandson. Their home was only 3 miles away.We do not want the fancy stuff that pricy hotels offer. It was perfect for us.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r130263392-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>130263392</t>
+  </si>
+  <si>
+    <t>05/20/2012</t>
+  </si>
+  <si>
+    <t>Like this hotel</t>
+  </si>
+  <si>
+    <t>We had reservations at another hotel.  When we got there, they informed us that the hotel was sold out, however, they had reserved us a room at the SpringHill Suites.  I was very upset with the hotel for moving us without informing us before hand.  Once we got to the SpringHill Suites, the staff was great.  The room was a full suite and once we settled in, we realize things happen for a reason.  We had never stayed at a SpringHill.  But will be staying at them from now on.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r129709031-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>129709031</t>
+  </si>
+  <si>
+    <t>05/10/2012</t>
+  </si>
+  <si>
+    <t>Clean &amp; Comfortable</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel during our visit to MD Anderson.  Close to the Medical Center and found the hotel to be very reasonable price compare to hotels around Medical Center and was VERY clean.  We stayed for a week and found no issues with housekeeping or anything in our room.  We will be staying again in few weeks.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r126972271-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>126972271</t>
+  </si>
+  <si>
+    <t>03/30/2012</t>
+  </si>
+  <si>
+    <t>Clean, Dated and Needs an Update</t>
+  </si>
+  <si>
+    <t>I spent the night at this hotel in the burbs.  It is a little further from the airport that expected which spawned me missing my flight during spring break week.  Thank God I was able to get on the next flight - what are the changes.  There is not much around the hotel so eat before you retire in for the night.  The hotel is clean however it is dated and has a decor, case goods of an original build SHS.  My room appeared to have a leak over the bed that was repaired but not so well.  This hotel does paint frequent as you can see in the room hallway and staircase.  Not sure I would return unless I was doing business near by as the hotel is a little too far from the city with no much going on around it.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>I spent the night at this hotel in the burbs.  It is a little further from the airport that expected which spawned me missing my flight during spring break week.  Thank God I was able to get on the next flight - what are the changes.  There is not much around the hotel so eat before you retire in for the night.  The hotel is clean however it is dated and has a decor, case goods of an original build SHS.  My room appeared to have a leak over the bed that was repaired but not so well.  This hotel does paint frequent as you can see in the room hallway and staircase.  Not sure I would return unless I was doing business near by as the hotel is a little too far from the city with no much going on around it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r116637441-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>116637441</t>
+  </si>
+  <si>
+    <t>08/12/2011</t>
+  </si>
+  <si>
+    <t>On par with other SpringHill Suites</t>
+  </si>
+  <si>
+    <t>I had read a couple of bad and mediocre reviews of this hotel, so I wasn't quite sure if it was up to Marriott standards. (I almost always stay at Marriott properties.) However, I was mostly satisfied with my stay (4 nights). One evening, my room key didn't work, and I had to go back to the front desk, not once but twice to have it re-coded. Some employees were more pleasant and/or professional than others, but no complaints there.My biggest complaint was the A/C. The unit has a handful of settings: Heat Hi/Low, Cool High/Low, and Fan Low/High. Regardless of the setting chosen, the fan runs CONSTANTLY. And when the outside temperatures are in the triple digits, turning the unit off is not an option. Very annoying at night, especially when it's about 3 feet away from the bed.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>I had read a couple of bad and mediocre reviews of this hotel, so I wasn't quite sure if it was up to Marriott standards. (I almost always stay at Marriott properties.) However, I was mostly satisfied with my stay (4 nights). One evening, my room key didn't work, and I had to go back to the front desk, not once but twice to have it re-coded. Some employees were more pleasant and/or professional than others, but no complaints there.My biggest complaint was the A/C. The unit has a handful of settings: Heat Hi/Low, Cool High/Low, and Fan Low/High. Regardless of the setting chosen, the fan runs CONSTANTLY. And when the outside temperatures are in the triple digits, turning the unit off is not an option. Very annoying at night, especially when it's about 3 feet away from the bed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r97167990-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>97167990</t>
+  </si>
+  <si>
+    <t>02/19/2011</t>
+  </si>
+  <si>
+    <t>Ideal for long stays at outskirts of Houston</t>
+  </si>
+  <si>
+    <t>I stayed for 3 months at this place, and seen lots of this hotel.First things first, the staff is Awesome, at the front desk and management till housekeeping.Rates are very competitive and if you book in advance, and have some good skills of negotiation, can get a very good bargain.Rooms are spacious and clean.Lots of parking, and is sufficient enough for the number of people staying.Location is an issue, but it is adjacent to the Freeway to Houston. So, if you are here at rush time, this can be favorable as well.Its very near to the City Shopping centre.A small swimming pool, which is sort of equivalent to a backyard pool only, which children can enjoy.A small fitness area with equipment enough to keep up with your fitness regime.I would recommend if you are looking for a budget stay for longer periods.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>I stayed for 3 months at this place, and seen lots of this hotel.First things first, the staff is Awesome, at the front desk and management till housekeeping.Rates are very competitive and if you book in advance, and have some good skills of negotiation, can get a very good bargain.Rooms are spacious and clean.Lots of parking, and is sufficient enough for the number of people staying.Location is an issue, but it is adjacent to the Freeway to Houston. So, if you are here at rush time, this can be favorable as well.Its very near to the City Shopping centre.A small swimming pool, which is sort of equivalent to a backyard pool only, which children can enjoy.A small fitness area with equipment enough to keep up with your fitness regime.I would recommend if you are looking for a budget stay for longer periods.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r94164787-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>94164787</t>
+  </si>
+  <si>
+    <t>01/23/2011</t>
+  </si>
+  <si>
+    <t>Disappointed in the Quality and Service of this Hotel</t>
+  </si>
+  <si>
+    <t>PURPOSE OF TRIP:   I was traveling with my elderly parents, and one elderly aunt, to bring my mother for treatment at MD Anderson Cancer Center.  
+When I first looked at the hotel's website I it seemed to be a new hotel, and I thought "chances are the rooms will be nice, and well maintained".  So, I booked a room with two queen beds and one sofa bed.  We were there to bring my mother to MD Anderson Cancer Center for Cancer Treatment.  Upon rolling into the parking lot, I noticed that there were very few cars in the parking lot.  The hotel did not appear to have many guests, at least on that date.  I thought, perhaps this is because it is located a bit outside of the business area of Houston, so I proceeded to register my room.  The hostess at the front desk was extremely friendly and behaved in a very professional manner- which I appreciated and noticed right off the bat.  She gave us a room on the first floor, at the far end of the hall.  While unloading our luggage, I thought "I wonder why she didn't give us a closer room, since there doesn't appear to be many people here".  Upon entering our room, it seemed nice and fairly new.  We unloaded all of our luggage, and settled down to relax after a 6 hour drive.  Then, my father discovered that the toilet tank would...PURPOSE OF TRIP:   I was traveling with my elderly parents, and one elderly aunt, to bring my mother for treatment at MD Anderson Cancer Center.  When I first looked at the hotel's website I it seemed to be a new hotel, and I thought "chances are the rooms will be nice, and well maintained".  So, I booked a room with two queen beds and one sofa bed.  We were there to bring my mother to MD Anderson Cancer Center for Cancer Treatment.  Upon rolling into the parking lot, I noticed that there were very few cars in the parking lot.  The hotel did not appear to have many guests, at least on that date.  I thought, perhaps this is because it is located a bit outside of the business area of Houston, so I proceeded to register my room.  The hostess at the front desk was extremely friendly and behaved in a very professional manner- which I appreciated and noticed right off the bat.  She gave us a room on the first floor, at the far end of the hall.  While unloading our luggage, I thought "I wonder why she didn't give us a closer room, since there doesn't appear to be many people here".  Upon entering our room, it seemed nice and fairly new.  We unloaded all of our luggage, and settled down to relax after a 6 hour drive.  Then, my father discovered that the toilet tank would not refill [at all] after it was flushed.  I called the front desk, and she told us she would move us to another room. This was very aggrevating after settling in and unpacking things, and wiping the room down with disinfectant as we like to be sure the room is clean.  So, we packed up, and moved.  This time to a room closer near the lobby, at my request.   I then had to go re-park the car closer- another aggrevation.  So we got to our new room with all of our luggage and start unpacking.  My dad checks the bathroom, and THAT toilet is doing the same thing:  it will not refill with water once it is flushed.  Also, the bathroom vent is hanging out of the ceiling with wires visible.  I immediately called the front desk.  She apologized and offered us another room. At this point I was very aggrevated.  I said, it is not feasible for us to keep moving our luggage all night- I have a sick lady here, and three of these guests are elderly.  She then sent a man to the room [who never introduced himself as the manager by the way] who came in and worked on the problem with the toilet and the bathroom vent, and finally corrected them, though the toilet still filled very slowly thereafter- took maybe 15 min to fill each time.  So we then get the room wiped down again, and get unpacked.  I pulled out the sofabed to prepare my bed for the night to find dirty, disguisting linens filled with potato chip crumbs, from the guest before me.    I looked in the closet, to find that my "clean linen bag"  that I was supposed to use to fix the bed was empty as well.  I called the front desk clerk who said she didn't know what kind of linens went on it.  But that she would check in to it, and get me some more.  I had to strip off the old dirty linens myself (who knows what sort of creatures were in them) and so I just threw them out in the hall.  I called and told her that I did, and she said she would come get them (but the next day at check out they were still sitting in the hallway).   The room was equipped with a nice flat screen TV, yet the TV would not pick up the TV stations clearly, it had terrible reception as if there was some sort of short in the wire-  clear one minute and static and loud popping noise the next.- so we were not really able to watch TV.   Another issue:  The Queen Beds-  were very uncomfortable;  they are NOT firm and supportive;  instead they have some type of foam on the top of the mattress which you sort of sink down into- which my parents and my aunt said was an absolute nightmare on their backs.    The next morning, we had the continental breakfast which I found to be pretty good.  Prior to checkout, I called and spoke with the [same] front desk clerk about everything that had happened.  She connected me to the man who had fixed our toilets- who identified himself as being the manager.  He gave me a 15.00 discount on the room which I found to be rather insulting considering the nightmare of a stay that we had experienced and that a hotel is supposed to be in the business of hospitality.  Upon pulling out of the hotel, I thought about the fact that very few cars were present in the parking lot- perhaps it was for a reason?  I would not recommend this hotel to anyone, nor would I stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>PURPOSE OF TRIP:   I was traveling with my elderly parents, and one elderly aunt, to bring my mother for treatment at MD Anderson Cancer Center.  
+When I first looked at the hotel's website I it seemed to be a new hotel, and I thought "chances are the rooms will be nice, and well maintained".  So, I booked a room with two queen beds and one sofa bed.  We were there to bring my mother to MD Anderson Cancer Center for Cancer Treatment.  Upon rolling into the parking lot, I noticed that there were very few cars in the parking lot.  The hotel did not appear to have many guests, at least on that date.  I thought, perhaps this is because it is located a bit outside of the business area of Houston, so I proceeded to register my room.  The hostess at the front desk was extremely friendly and behaved in a very professional manner- which I appreciated and noticed right off the bat.  She gave us a room on the first floor, at the far end of the hall.  While unloading our luggage, I thought "I wonder why she didn't give us a closer room, since there doesn't appear to be many people here".  Upon entering our room, it seemed nice and fairly new.  We unloaded all of our luggage, and settled down to relax after a 6 hour drive.  Then, my father discovered that the toilet tank would...PURPOSE OF TRIP:   I was traveling with my elderly parents, and one elderly aunt, to bring my mother for treatment at MD Anderson Cancer Center.  When I first looked at the hotel's website I it seemed to be a new hotel, and I thought "chances are the rooms will be nice, and well maintained".  So, I booked a room with two queen beds and one sofa bed.  We were there to bring my mother to MD Anderson Cancer Center for Cancer Treatment.  Upon rolling into the parking lot, I noticed that there were very few cars in the parking lot.  The hotel did not appear to have many guests, at least on that date.  I thought, perhaps this is because it is located a bit outside of the business area of Houston, so I proceeded to register my room.  The hostess at the front desk was extremely friendly and behaved in a very professional manner- which I appreciated and noticed right off the bat.  She gave us a room on the first floor, at the far end of the hall.  While unloading our luggage, I thought "I wonder why she didn't give us a closer room, since there doesn't appear to be many people here".  Upon entering our room, it seemed nice and fairly new.  We unloaded all of our luggage, and settled down to relax after a 6 hour drive.  Then, my father discovered that the toilet tank would not refill [at all] after it was flushed.  I called the front desk, and she told us she would move us to another room. This was very aggrevating after settling in and unpacking things, and wiping the room down with disinfectant as we like to be sure the room is clean.  So, we packed up, and moved.  This time to a room closer near the lobby, at my request.   I then had to go re-park the car closer- another aggrevation.  So we got to our new room with all of our luggage and start unpacking.  My dad checks the bathroom, and THAT toilet is doing the same thing:  it will not refill with water once it is flushed.  Also, the bathroom vent is hanging out of the ceiling with wires visible.  I immediately called the front desk.  She apologized and offered us another room. At this point I was very aggrevated.  I said, it is not feasible for us to keep moving our luggage all night- I have a sick lady here, and three of these guests are elderly.  She then sent a man to the room [who never introduced himself as the manager by the way] who came in and worked on the problem with the toilet and the bathroom vent, and finally corrected them, though the toilet still filled very slowly thereafter- took maybe 15 min to fill each time.  So we then get the room wiped down again, and get unpacked.  I pulled out the sofabed to prepare my bed for the night to find dirty, disguisting linens filled with potato chip crumbs, from the guest before me.    I looked in the closet, to find that my "clean linen bag"  that I was supposed to use to fix the bed was empty as well.  I called the front desk clerk who said she didn't know what kind of linens went on it.  But that she would check in to it, and get me some more.  I had to strip off the old dirty linens myself (who knows what sort of creatures were in them) and so I just threw them out in the hall.  I called and told her that I did, and she said she would come get them (but the next day at check out they were still sitting in the hallway).   The room was equipped with a nice flat screen TV, yet the TV would not pick up the TV stations clearly, it had terrible reception as if there was some sort of short in the wire-  clear one minute and static and loud popping noise the next.- so we were not really able to watch TV.   Another issue:  The Queen Beds-  were very uncomfortable;  they are NOT firm and supportive;  instead they have some type of foam on the top of the mattress which you sort of sink down into- which my parents and my aunt said was an absolute nightmare on their backs.    The next morning, we had the continental breakfast which I found to be pretty good.  Prior to checkout, I called and spoke with the [same] front desk clerk about everything that had happened.  She connected me to the man who had fixed our toilets- who identified himself as being the manager.  He gave me a 15.00 discount on the room which I found to be rather insulting considering the nightmare of a stay that we had experienced and that a hotel is supposed to be in the business of hospitality.  Upon pulling out of the hotel, I thought about the fact that very few cars were present in the parking lot- perhaps it was for a reason?  I would not recommend this hotel to anyone, nor would I stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r71504736-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>71504736</t>
+  </si>
+  <si>
+    <t>07/19/2010</t>
+  </si>
+  <si>
+    <t>Horrible Service</t>
+  </si>
+  <si>
+    <t>This property offers HORRIBLE service!  The staff is not trained properly.  They are rude!  From the manager down!  Find somewhere nicer to stay and avoid this property!</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r69947605-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>69947605</t>
+  </si>
+  <si>
+    <t>07/06/2010</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>Jul 3-Jul 7: I was relocated to Houston and needed to stay at a hotel and SpringHill Suites provided the amenities that we needed: Pool, Free-Wi-Fi, fitness center and breakfast.  The best part about the stay was the management.  We had the same lady every morning and she was awesome.  She assisted in making copies of info and faxing it to the city so that I could have my utilities turned on.  The morning and afternoon ladies were always very friendly and were able to answer questions that we had regarding the area.  The only downside to the stay was the bugs in the pool but they took care of it when we reported it.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>Jul 3-Jul 7: I was relocated to Houston and needed to stay at a hotel and SpringHill Suites provided the amenities that we needed: Pool, Free-Wi-Fi, fitness center and breakfast.  The best part about the stay was the management.  We had the same lady every morning and she was awesome.  She assisted in making copies of info and faxing it to the city so that I could have my utilities turned on.  The morning and afternoon ladies were always very friendly and were able to answer questions that we had regarding the area.  The only downside to the stay was the bugs in the pool but they took care of it when we reported it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r56802894-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>56802894</t>
+  </si>
+  <si>
+    <t>02/22/2010</t>
+  </si>
+  <si>
+    <t>I'm a fan of Springhill, but this place is horrible</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this location for a friend's wedding south of the loop, and it was awful.  First and foremost, I am a Marriott rewards member, and always stay when I can.  We were travelling with points, so maybe that is why they stuck me on the first floor next to the ice machine?  This isn't usually my experience with Marriott, so when I informed the lady at the front that the heater in our room wasn't working, (was blowing cool air for over 20 minutes, did not heat up), she proceeded to ask me 20 questions about how long I had it running form, was I sure the knobs were positioned correctly, etc.  I informed her that she need just pull up my rewards information to see this wasn't my first rodeo, but it still took her an additional 20 minutes and several calls to shift managers, then ultimately the hotel manager before she finally changed our rooms.  She was very condescending and was not polite.  Also, they did not provide a high speed internet chord until I asked.  While I was in the lobby the next day waiting for some company, they vacuumed the entire lobby, which is a good thing, except the gentlemen kept giving me dirty looks and practically vacuumed up my socks trying to give me the hint to move. The room was clean, but they closed breakfast early which was seriously...My wife and I stayed at this location for a friend's wedding south of the loop, and it was awful.  First and foremost, I am a Marriott rewards member, and always stay when I can.  We were travelling with points, so maybe that is why they stuck me on the first floor next to the ice machine?  This isn't usually my experience with Marriott, so when I informed the lady at the front that the heater in our room wasn't working, (was blowing cool air for over 20 minutes, did not heat up), she proceeded to ask me 20 questions about how long I had it running form, was I sure the knobs were positioned correctly, etc.  I informed her that she need just pull up my rewards information to see this wasn't my first rodeo, but it still took her an additional 20 minutes and several calls to shift managers, then ultimately the hotel manager before she finally changed our rooms.  She was very condescending and was not polite.  Also, they did not provide a high speed internet chord until I asked.  While I was in the lobby the next day waiting for some company, they vacuumed the entire lobby, which is a good thing, except the gentlemen kept giving me dirty looks and practically vacuumed up my socks trying to give me the hint to move. The room was clean, but they closed breakfast early which was seriously upsetting.  I would NOT recommend this hotel.  Any other Springhill is usually okay, but in Pearland they have a lot to learn.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this location for a friend's wedding south of the loop, and it was awful.  First and foremost, I am a Marriott rewards member, and always stay when I can.  We were travelling with points, so maybe that is why they stuck me on the first floor next to the ice machine?  This isn't usually my experience with Marriott, so when I informed the lady at the front that the heater in our room wasn't working, (was blowing cool air for over 20 minutes, did not heat up), she proceeded to ask me 20 questions about how long I had it running form, was I sure the knobs were positioned correctly, etc.  I informed her that she need just pull up my rewards information to see this wasn't my first rodeo, but it still took her an additional 20 minutes and several calls to shift managers, then ultimately the hotel manager before she finally changed our rooms.  She was very condescending and was not polite.  Also, they did not provide a high speed internet chord until I asked.  While I was in the lobby the next day waiting for some company, they vacuumed the entire lobby, which is a good thing, except the gentlemen kept giving me dirty looks and practically vacuumed up my socks trying to give me the hint to move. The room was clean, but they closed breakfast early which was seriously...My wife and I stayed at this location for a friend's wedding south of the loop, and it was awful.  First and foremost, I am a Marriott rewards member, and always stay when I can.  We were travelling with points, so maybe that is why they stuck me on the first floor next to the ice machine?  This isn't usually my experience with Marriott, so when I informed the lady at the front that the heater in our room wasn't working, (was blowing cool air for over 20 minutes, did not heat up), she proceeded to ask me 20 questions about how long I had it running form, was I sure the knobs were positioned correctly, etc.  I informed her that she need just pull up my rewards information to see this wasn't my first rodeo, but it still took her an additional 20 minutes and several calls to shift managers, then ultimately the hotel manager before she finally changed our rooms.  She was very condescending and was not polite.  Also, they did not provide a high speed internet chord until I asked.  While I was in the lobby the next day waiting for some company, they vacuumed the entire lobby, which is a good thing, except the gentlemen kept giving me dirty looks and practically vacuumed up my socks trying to give me the hint to move. The room was clean, but they closed breakfast early which was seriously upsetting.  I would NOT recommend this hotel.  Any other Springhill is usually okay, but in Pearland they have a lot to learn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r28267982-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>28267982</t>
+  </si>
+  <si>
+    <t>04/18/2009</t>
+  </si>
+  <si>
+    <t>Nice hotel, but "suite" is not separate rooms</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel, but the website leads you to believe that the mini-kitchen/seating area is separate from the bed, but it isn't really. There is a very small dividing wall, so if you are traveling with an infant and want a separate space for his/her sleeping, these rooms do not provide this. Again, if you don't care about this, it is a lovely place to stay, but to call them suites seems a bit misleading.</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r24226387-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>24226387</t>
+  </si>
+  <si>
+    <t>02/04/2009</t>
+  </si>
+  <si>
+    <t>Thank You</t>
+  </si>
+  <si>
+    <t>Thanks for making our stay so comfortable during our son's wedding.  Love the room size and the breakfast.  The staff was wonderful.  See you next time</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r12277710-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>12277710</t>
+  </si>
+  <si>
+    <t>01/02/2008</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>The hotel is very clean and have a wonderful staff.  Loved the size of our rooms.</t>
+  </si>
+  <si>
+    <t>December 2007</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1469,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1501,2914 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>112</v>
+      </c>
+      <c r="X11" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>112</v>
+      </c>
+      <c r="X12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O13" t="s">
+        <v>111</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>126</v>
+      </c>
+      <c r="X13" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>135</v>
+      </c>
+      <c r="X14" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>143</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" t="s">
+        <v>148</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>149</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" t="s">
+        <v>154</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>155</v>
+      </c>
+      <c r="O17" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s">
+        <v>161</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>162</v>
+      </c>
+      <c r="O18" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" t="s">
+        <v>166</v>
+      </c>
+      <c r="L19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>168</v>
+      </c>
+      <c r="O19" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" t="s">
+        <v>173</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>174</v>
+      </c>
+      <c r="O20" t="s">
+        <v>111</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>181</v>
+      </c>
+      <c r="X21" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" t="s">
+        <v>187</v>
+      </c>
+      <c r="L22" t="s">
+        <v>188</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>189</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>190</v>
+      </c>
+      <c r="X22" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>194</v>
+      </c>
+      <c r="J23" t="s">
+        <v>195</v>
+      </c>
+      <c r="K23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L23" t="s">
+        <v>197</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>198</v>
+      </c>
+      <c r="O23" t="s">
+        <v>74</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>199</v>
+      </c>
+      <c r="X23" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>203</v>
+      </c>
+      <c r="J24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K24" t="s">
+        <v>205</v>
+      </c>
+      <c r="L24" t="s">
+        <v>206</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>207</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>209</v>
+      </c>
+      <c r="J25" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" t="s">
+        <v>211</v>
+      </c>
+      <c r="L25" t="s">
+        <v>212</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>213</v>
+      </c>
+      <c r="O25" t="s">
+        <v>74</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>215</v>
+      </c>
+      <c r="J26" t="s">
+        <v>216</v>
+      </c>
+      <c r="K26" t="s">
+        <v>217</v>
+      </c>
+      <c r="L26" t="s">
+        <v>218</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>219</v>
+      </c>
+      <c r="O26" t="s">
+        <v>143</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>221</v>
+      </c>
+      <c r="J27" t="s">
+        <v>222</v>
+      </c>
+      <c r="K27" t="s">
+        <v>223</v>
+      </c>
+      <c r="L27" t="s">
+        <v>224</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>225</v>
+      </c>
+      <c r="O27" t="s">
+        <v>74</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>228</v>
+      </c>
+      <c r="J28" t="s">
+        <v>229</v>
+      </c>
+      <c r="K28" t="s">
+        <v>230</v>
+      </c>
+      <c r="L28" t="s">
+        <v>231</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>225</v>
+      </c>
+      <c r="O28" t="s">
+        <v>74</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>233</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>234</v>
+      </c>
+      <c r="J29" t="s">
+        <v>235</v>
+      </c>
+      <c r="K29" t="s">
+        <v>236</v>
+      </c>
+      <c r="L29" t="s">
+        <v>237</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>239</v>
+      </c>
+      <c r="J30" t="s">
+        <v>240</v>
+      </c>
+      <c r="K30" t="s">
+        <v>241</v>
+      </c>
+      <c r="L30" t="s">
+        <v>242</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>243</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>244</v>
+      </c>
+      <c r="J31" t="s">
+        <v>245</v>
+      </c>
+      <c r="K31" t="s">
+        <v>246</v>
+      </c>
+      <c r="L31" t="s">
+        <v>247</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>248</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>249</v>
+      </c>
+      <c r="J32" t="s">
+        <v>250</v>
+      </c>
+      <c r="K32" t="s">
+        <v>251</v>
+      </c>
+      <c r="L32" t="s">
+        <v>252</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>253</v>
+      </c>
+      <c r="O32" t="s">
+        <v>74</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>254</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>255</v>
+      </c>
+      <c r="J33" t="s">
+        <v>256</v>
+      </c>
+      <c r="K33" t="s">
+        <v>257</v>
+      </c>
+      <c r="L33" t="s">
+        <v>258</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>259</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>260</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>261</v>
+      </c>
+      <c r="J34" t="s">
+        <v>262</v>
+      </c>
+      <c r="K34" t="s">
+        <v>263</v>
+      </c>
+      <c r="L34" t="s">
+        <v>264</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>265</v>
+      </c>
+      <c r="O34" t="s">
+        <v>74</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>266</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>267</v>
+      </c>
+      <c r="J35" t="s">
+        <v>268</v>
+      </c>
+      <c r="K35" t="s">
+        <v>269</v>
+      </c>
+      <c r="L35" t="s">
+        <v>270</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>271</v>
+      </c>
+      <c r="O35" t="s">
+        <v>74</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>272</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>273</v>
+      </c>
+      <c r="J36" t="s">
+        <v>274</v>
+      </c>
+      <c r="K36" t="s">
+        <v>275</v>
+      </c>
+      <c r="L36" t="s">
+        <v>276</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>277</v>
+      </c>
+      <c r="O36" t="s">
+        <v>74</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>278</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>279</v>
+      </c>
+      <c r="J37" t="s">
+        <v>280</v>
+      </c>
+      <c r="K37" t="s">
+        <v>281</v>
+      </c>
+      <c r="L37" t="s">
+        <v>282</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>283</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>285</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>286</v>
+      </c>
+      <c r="J38" t="s">
+        <v>287</v>
+      </c>
+      <c r="K38" t="s">
+        <v>288</v>
+      </c>
+      <c r="L38" t="s">
+        <v>289</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>290</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>292</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>293</v>
+      </c>
+      <c r="J39" t="s">
+        <v>294</v>
+      </c>
+      <c r="K39" t="s">
+        <v>295</v>
+      </c>
+      <c r="L39" t="s">
+        <v>296</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>297</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>299</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>300</v>
+      </c>
+      <c r="J40" t="s">
+        <v>301</v>
+      </c>
+      <c r="K40" t="s">
+        <v>302</v>
+      </c>
+      <c r="L40" t="s">
+        <v>303</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>304</v>
+      </c>
+      <c r="O40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>306</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>307</v>
+      </c>
+      <c r="J41" t="s">
+        <v>308</v>
+      </c>
+      <c r="K41" t="s">
+        <v>309</v>
+      </c>
+      <c r="L41" t="s">
+        <v>310</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>311</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>312</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>313</v>
+      </c>
+      <c r="J42" t="s">
+        <v>314</v>
+      </c>
+      <c r="K42" t="s">
+        <v>315</v>
+      </c>
+      <c r="L42" t="s">
+        <v>316</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>317</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>319</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>320</v>
+      </c>
+      <c r="J43" t="s">
+        <v>321</v>
+      </c>
+      <c r="K43" t="s">
+        <v>322</v>
+      </c>
+      <c r="L43" t="s">
+        <v>323</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>324</v>
+      </c>
+      <c r="O43" t="s">
+        <v>61</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>326</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>327</v>
+      </c>
+      <c r="J44" t="s">
+        <v>328</v>
+      </c>
+      <c r="K44" t="s">
+        <v>329</v>
+      </c>
+      <c r="L44" t="s">
+        <v>330</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>331</v>
+      </c>
+      <c r="O44" t="s">
+        <v>74</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>332</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>333</v>
+      </c>
+      <c r="J45" t="s">
+        <v>334</v>
+      </c>
+      <c r="K45" t="s">
+        <v>335</v>
+      </c>
+      <c r="L45" t="s">
+        <v>336</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>337</v>
+      </c>
+      <c r="O45" t="s">
+        <v>61</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>338</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>339</v>
+      </c>
+      <c r="J46" t="s">
+        <v>340</v>
+      </c>
+      <c r="K46" t="s">
+        <v>341</v>
+      </c>
+      <c r="L46" t="s">
+        <v>342</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>343</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_593.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_593.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="534">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,72 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r569178937-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>56432</t>
+  </si>
+  <si>
+    <t>656294</t>
+  </si>
+  <si>
+    <t>569178937</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>Terrible hotel.  Poor representation of the Marriott brand.  Will never stay here again.</t>
+  </si>
+  <si>
+    <t>I was highly disappointed in this hotel.  The front desk staff was unfriendly and unprofessional, the room was not up to Marriott standards, and the breakfast was terrible.  I travel through here often, but I'll never stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Rushi P, Manager at SpringHill Suites Houston Pearland, responded to this reviewResponded March 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2018</t>
+  </si>
+  <si>
+    <t>I was highly disappointed in this hotel.  The front desk staff was unfriendly and unprofessional, the room was not up to Marriott standards, and the breakfast was terrible.  I travel through here often, but I'll never stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r566675238-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>566675238</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>Night shift</t>
+  </si>
+  <si>
+    <t>Never in all my years of traveling have I stayed at a hotel with such inconsiderate maids. Instead of proping the door open like most maids. This maids would put the metal latch on and let the door hit it. Try sleeping though that. Never been though this in my 30 years of travel. If you want to sleep in or work late DO NOT STAY HERE.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rushi P, Manager at SpringHill Suites Houston Pearland, responded to this reviewResponded March 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2018</t>
+  </si>
+  <si>
+    <t>Never in all my years of traveling have I stayed at a hotel with such inconsiderate maids. Instead of proping the door open like most maids. This maids would put the metal latch on and let the door hit it. Try sleeping though that. Never been though this in my 30 years of travel. If you want to sleep in or work late DO NOT STAY HERE.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r557351453-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
-    <t>56432</t>
-  </si>
-  <si>
-    <t>656294</t>
-  </si>
-  <si>
     <t>557351453</t>
   </si>
   <si>
@@ -175,9 +229,6 @@
   </si>
   <si>
     <t>January 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>BED BUGS GALORE!! My husband had been staying here while working at a new job. The first two weeks were uneventful but on week three he had about four or five bug bites. The hotel moved him to a different room on a different floor but the next day he had more bites. The hotel also took care of having his shirts dry cleaned. He then left for the weekend but bites kept popping up. He learned it sometimes takes days for bed bug bites to show up. He cancelled his reservation for the next week and moved to a different hotel. He took all his clothing to a laundromat and washed and dried them. When he took his clothing out of the dryer he found dead bed bugs! Now this morning at the new hotel, he opened up his box of cereal he had bought and had at this Spring hills Marriot, only to find it was crawling with bed bugs!! He has thrown away all his clothing, luggage and everything he had at the Marriot to be safe and will have to go out and buy new! I am beyond angry!! He is itching and bit up all over. He travels quite a lot for work and never had such a miserable experience. He has been home three times since staying at this place and if I end up with a bed bug infestation in my home from...BED BUGS GALORE!! My husband had been staying here while working at a new job. The first two weeks were uneventful but on week three he had about four or five bug bites. The hotel moved him to a different room on a different floor but the next day he had more bites. The hotel also took care of having his shirts dry cleaned. He then left for the weekend but bites kept popping up. He learned it sometimes takes days for bed bug bites to show up. He cancelled his reservation for the next week and moved to a different hotel. He took all his clothing to a laundromat and washed and dried them. When he took his clothing out of the dryer he found dead bed bugs! Now this morning at the new hotel, he opened up his box of cereal he had bought and had at this Spring hills Marriot, only to find it was crawling with bed bugs!! He has thrown away all his clothing, luggage and everything he had at the Marriot to be safe and will have to go out and buy new! I am beyond angry!! He is itching and bit up all over. He travels quite a lot for work and never had such a miserable experience. He has been home three times since staying at this place and if I end up with a bed bug infestation in my home from this, be assured the Marriot will be getting the bill for eradication!! More</t>
@@ -230,6 +281,48 @@
     <t>The Springhill Suites was a nice stay. The rooms were clean and smelled fresh. It was great being able to check in early so we could get ready for the wedding we were attending. They offered a workout room, pool, free breakfast, and more. Great stay.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r534179607-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>534179607</t>
+  </si>
+  <si>
+    <t>10/18/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reservation nightmare </t>
+  </si>
+  <si>
+    <t>We arrived at 11pm and were told that we were a day early and there were no rooms available. I had called and adjusted our reservation two weeks earlier to arrive a day early and was told it was taken care of. The desk clerk said we were a day early and it was my fault. He did not offer to help us find a room. He basically said good riddance!All of the Marriott hotels were booked in Houston. We finally on our own found a great hotel in Galveston, the Hampton Inn.This is the second time that the Springhill Suites has screwed up our reservations. Last time they didn't check us out and charged us for a night we weren't even in the hotel.The front desk staff cannot be trusted to check you out or make any adjustments to a reservation.I strongly urge you to avoid this hotel and the headache that accompanies a visit there!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>We arrived at 11pm and were told that we were a day early and there were no rooms available. I had called and adjusted our reservation two weeks earlier to arrive a day early and was told it was taken care of. The desk clerk said we were a day early and it was my fault. He did not offer to help us find a room. He basically said good riddance!All of the Marriott hotels were booked in Houston. We finally on our own found a great hotel in Galveston, the Hampton Inn.This is the second time that the Springhill Suites has screwed up our reservations. Last time they didn't check us out and charged us for a night we weren't even in the hotel.The front desk staff cannot be trusted to check you out or make any adjustments to a reservation.I strongly urge you to avoid this hotel and the headache that accompanies a visit there!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r509727416-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>509727416</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Nice Place To Stay.</t>
+  </si>
+  <si>
+    <t>This was our first time staying at the Marriott Suites. It was a nice room, the staff was very nice as well. Complementary breakfast was good every morning. They need to do some maintenance on their elevator. Most of the buttons take forever to get a response.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r505878530-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -248,9 +341,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>upon returning to Springhill suites after a day of sightseeing, found the hotel suffering from a power outage. normally no big deal but it's the staff's attitude made it unpleasant. when asked if they can assist to book at another Marriott hotel, the response is " if I give them the phone of the hotel'. I wonder why the hotel was not better prepared upon power outage and had some kind of contingency plan. I assume the hotel would have working relationship with other Marriott properties, especially in a major situation like this. I can't believe this is the Marriott's way of taking care of guests when there is a power outage.More</t>
   </si>
   <si>
@@ -287,6 +377,39 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r475801644-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>475801644</t>
+  </si>
+  <si>
+    <t>04/15/2017</t>
+  </si>
+  <si>
+    <t>Comfortable Beds &amp; Good Service!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very impressed. Best beds in like 10 years of staying in Marriott Hotels exclusively; way better than the big Marriott Hotel beds. Clean, classy and comfortable. Also, the free breakfast was an added bonus! This will be our hotel of choice when traveling back to Houston. After a horrible experience in Oklahoma at a Renaissance Marriott, you helped to restore some of our faith in the Marriott brand. Hats off to you! </t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r449651072-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>449651072</t>
+  </si>
+  <si>
+    <t>01/05/2017</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>I drove to Houston unexpectedly on New Year'so Eve, not expecting to find a hotel at a reasonable rates. My first stop was the Springhill. To my surprise the rate was very reasonable less than a 100$ include taxes. I figured this was a great way to kick off the new year. Rooms were very clean both sitting and bedroom areas. Receptionist was very accommodating and knowledgeable about the area. At the Springhill you will get your monies worth if you are looking for a reasonable rate.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r443019776-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -341,6 +464,42 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r384976616-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>384976616</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>Turn-around trip to Houston</t>
+  </si>
+  <si>
+    <t>Dashed into Pearland for a wedding ceremony and the Springhill Suites was a nice place to end and start the 36-hours I was in town. I touched down and Uber'ed to the hotel and quickly got turned around to head to Kitty Hawk park for a picnic. Though early, my room was ready and the staff was kind enough to call an Uber driver for me as well. The breakfast the next a.m. was ample enough and I was able to get a late checkout (had a late flight out after the wedding). Was close enough to shopping and dining options. Would stay again, but definitely have a car.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r376806403-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>376806403</t>
+  </si>
+  <si>
+    <t>05/26/2016</t>
+  </si>
+  <si>
+    <t>South if Traffic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I work in Angleton every few weeks. I've been searching for a place south of the traffic that's nice and affordable. This totally fit the bill. No traffic at all going south and you miss the oil workers driving the prices up further south. One thing. The coffee pot makes 4 cups of wonderful coffee. And they have real cups! But the packet only had enough cream and sweeter for one cup :) stay here. You'll be happy. Nice outdoor pool too.  </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r358479791-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -357,9 +516,6 @@
   </si>
   <si>
     <t>March 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>Rushi P, Manager at SpringHill Suites Houston Pearland, responded to this reviewResponded March 28, 2016</t>
@@ -421,6 +577,51 @@
     <t>I stayed in this hotel for one night, it's considered 3-star, one of the best in Pearland, blah, blah, blah and I would have agreed had I not had to wake up with this bug in my bed. The hotel is nice, the check in was easy, the room was nice and appeared clean and I would have left them a very good review had I not had to wake up the next morning to what I think is a bed bug (really any bug in my bed it absolutely disgusting) and bites on my leg. This is exactly why people hate staying in hotels and I am one of those people. Instead of checking out and going to lunch with a friend as I had planned, I had to go straight home, take all of my clothes (including clothes that  are dry clean only) and put them directly into the washer for a long wash and then the dryer. I had to bath and wash my hair, put my bags out on my back porch, etc. and it really just threw off my entire day. Because I booked the room through Priceline, the hotel did little more than give me the managers name (who was not it) and tell me to call the manager, which I didn't because...why should I have to call the manager? If you have a guest that is reporting bed bugs in your hotel, why...I stayed in this hotel for one night, it's considered 3-star, one of the best in Pearland, blah, blah, blah and I would have agreed had I not had to wake up with this bug in my bed. The hotel is nice, the check in was easy, the room was nice and appeared clean and I would have left them a very good review had I not had to wake up the next morning to what I think is a bed bug (really any bug in my bed it absolutely disgusting) and bites on my leg. This is exactly why people hate staying in hotels and I am one of those people. Instead of checking out and going to lunch with a friend as I had planned, I had to go straight home, take all of my clothes (including clothes that  are dry clean only) and put them directly into the washer for a long wash and then the dryer. I had to bath and wash my hair, put my bags out on my back porch, etc. and it really just threw off my entire day. Because I booked the room through Priceline, the hotel did little more than give me the managers name (who was not it) and tell me to call the manager, which I didn't because...why should I have to call the manager? If you have a guest that is reporting bed bugs in your hotel, why wouldn't the manager take the initiative to contact the guest? Making sure bed bug issues are resolved is the hotel's responsibility, not mine. I called Priceline in order to get a refund, but they called the hotel and once again the manager was not in, therefore they will have to get back to me. If I get a refund, great, if not, at least I am able to let you guys know the dangers.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r352647153-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>352647153</t>
+  </si>
+  <si>
+    <t>03/03/2016</t>
+  </si>
+  <si>
+    <t>Mediocre</t>
+  </si>
+  <si>
+    <t>The rooms are clean however, I am a bit disappointed with this property.  My husband and I travel quite a bit and we are Marriott Reward Members and this is the first Marriott property that is below standard, in my opinion.  They put us on a floor which is under construction so as soon as you get off the elevator you see carpet ripped off the floor exposing the concrete.  Big plastic garbage bags all over full of remnants . I understand that they are refurbishing the place but it would be nice to close that floor and have guests use the floor that is not under construction just for safety reasons. Pillows looks like infant pillows , very smallBreakfast is free so that is one good thing and selection is pretty good.  Staff at the breakfast area are friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Rushi P, General Manager at SpringHill Suites Houston Pearland, responded to this reviewResponded March 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2016</t>
+  </si>
+  <si>
+    <t>The rooms are clean however, I am a bit disappointed with this property.  My husband and I travel quite a bit and we are Marriott Reward Members and this is the first Marriott property that is below standard, in my opinion.  They put us on a floor which is under construction so as soon as you get off the elevator you see carpet ripped off the floor exposing the concrete.  Big plastic garbage bags all over full of remnants . I understand that they are refurbishing the place but it would be nice to close that floor and have guests use the floor that is not under construction just for safety reasons. Pillows looks like infant pillows , very smallBreakfast is free so that is one good thing and selection is pretty good.  Staff at the breakfast area are friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r350875801-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>350875801</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>Enjoyable stay</t>
+  </si>
+  <si>
+    <t>I stayed there for a week for a business trip.  I was kind of surprised when I received a suite (comparing with the price).  When I was there, the hotel is in the middle of a renovation.  But the room was still clean with no dust.  The suite has a small fridge and a microwave.  Some hotels these days still don't offer them.The breakfast is so-so, just a normal complimentary breakfast.The hotel location helps to keep it quiet.  Highly recommend it.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r346410921-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -428,18 +629,12 @@
   </si>
   <si>
     <t>02/09/2016</t>
-  </si>
-  <si>
-    <t>Mediocre</t>
   </si>
   <si>
     <t>I am a faithful Marriott Rewards Member and I was utterly disappointed with my visit to this location. First of all, I was in Houston for the Funeral of my Favorite Aunt so I was sad to begin with. Also Delta Airlines lost my Luggage. Incidentally, all I wanted to do was check into my Hotel, relax and cry myself to sleep.
  When I walked into the Lobby, the Man who I assume was the receptionist( he was not behind the counter, he was in a sitting area),   was licking his fingers eating his "lunch" I guess? It was around 12:30 AM. He asked me if I needed help. Um no I'm just standing here for nothing. Anyway, my check in was quick he didn't say much. He gave me a room on the 1st floor. I asked him if he had anything on a higher floor, (which my account already has noted) he said they were renovating and the 1st floor would be best for me. I took my keys and walked down to the very last room down the hall from the Lobby only to find out my keys didn't work. So I walked ALL the way back for him to re-key my keys. The room was clean. I had about 5 mini pillows on my bed. Not 1 regular size pillow. I was right by the back door which was so loud, I jumped out of my...I am a faithful Marriott Rewards Member and I was utterly disappointed with my visit to this location. First of all, I was in Houston for the Funeral of my Favorite Aunt so I was sad to begin with. Also Delta Airlines lost my Luggage. Incidentally, all I wanted to do was check into my Hotel, relax and cry myself to sleep. When I walked into the Lobby, the Man who I assume was the receptionist( he was not behind the counter, he was in a sitting area),   was licking his fingers eating his "lunch" I guess? It was around 12:30 AM. He asked me if I needed help. Um no I'm just standing here for nothing. Anyway, my check in was quick he didn't say much. He gave me a room on the 1st floor. I asked him if he had anything on a higher floor, (which my account already has noted) he said they were renovating and the 1st floor would be best for me. I took my keys and walked down to the very last room down the hall from the Lobby only to find out my keys didn't work. So I walked ALL the way back for him to re-key my keys. The room was clean. I had about 5 mini pillows on my bed. Not 1 regular size pillow. I was right by the back door which was so loud, I jumped out of my sleep every time it shut.The Internet was nonexistent as well. I called the front desk and asked them to inform me when my bag arrived from Delta. I received a text from Delta saying they had delivered my bag at 4:30. I called the front desk when I was available, which was around 5:30 to ask if my bag had been delivered, a Young Lady said yes they JUST delivered  it. I knew that was a lie. The  Lawn people came and cut the grass at 8 in the morning, so I woke up to a very loud lawn mower. I'm glad they are renovating the rooms but that's not what needs work in this place.MoreShow less</t>
   </si>
   <si>
-    <t>February 2016</t>
-  </si>
-  <si>
     <t>Rushi P, Manager at SpringHill Suites Houston Pearland, responded to this reviewResponded February 10, 2016</t>
   </si>
   <si>
@@ -486,6 +681,48 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r319665294-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>319665294</t>
+  </si>
+  <si>
+    <t>10/17/2015</t>
+  </si>
+  <si>
+    <t>Large rooms and great service make this hotel shine!</t>
+  </si>
+  <si>
+    <t>We were in Houston for meetings, and selected the Springhill Suites because it's location was convenient to our meeting location. We had 2 rooms, with 2 people per room, and stayed 3 nights.Things we liked: The rooms are very large, and could sleep 5-6 people if needed.The mattresses are excellent, with 4 pillows per bed.The room and bathroom were very clean, and housekeeping provided sufficient soap, shampoo and towels.There is a small bar with refrigerator and microwave.There is a privacy wall between the bed area and the sofa/desk area.There is a full breakfast, with quality food items and it was stocked and well-tended.The desk staff was very helpful.There is free wifi, and a business area with free printing.There is  a fitness center and an outdoor pool.The location is far from the airports, so there is no shuttle.The area feels secure, and within 10 minutes is a good variety of shopping and restaurants.Items of concern-Houston highways are very large and very busy, so plan ahead if travelling during the busy times, which starts early and goes late some days.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>We were in Houston for meetings, and selected the Springhill Suites because it's location was convenient to our meeting location. We had 2 rooms, with 2 people per room, and stayed 3 nights.Things we liked: The rooms are very large, and could sleep 5-6 people if needed.The mattresses are excellent, with 4 pillows per bed.The room and bathroom were very clean, and housekeeping provided sufficient soap, shampoo and towels.There is a small bar with refrigerator and microwave.There is a privacy wall between the bed area and the sofa/desk area.There is a full breakfast, with quality food items and it was stocked and well-tended.The desk staff was very helpful.There is free wifi, and a business area with free printing.There is  a fitness center and an outdoor pool.The location is far from the airports, so there is no shuttle.The area feels secure, and within 10 minutes is a good variety of shopping and restaurants.Items of concern-Houston highways are very large and very busy, so plan ahead if travelling during the busy times, which starts early and goes late some days.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r312519019-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>312519019</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>G. Looez</t>
+  </si>
+  <si>
+    <t>What an awesome and unique experience!  On 8-27 we stayed at this hotel due to work that was being done at our residence. We had lots going on, and we inadvertently left personal valuables at the hotel. 3 days later, I realized had left my personal valuables (jewelry) at the hotel.  That morning (3 days later!) I ran to the hotel where the general manager kindly advised me our valuables were found by the housekeeper, who turned them into her supervisor, who secured them in their safe.  We are loyal Marriot customers and time share owners; and after this experience I don't think I am changing brands.  Great people make great companies and hats off to the management and staff at this Springhill Suites off Beltway 8 and McHard Road in Pearland, Texas. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>What an awesome and unique experience!  On 8-27 we stayed at this hotel due to work that was being done at our residence. We had lots going on, and we inadvertently left personal valuables at the hotel. 3 days later, I realized had left my personal valuables (jewelry) at the hotel.  That morning (3 days later!) I ran to the hotel where the general manager kindly advised me our valuables were found by the housekeeper, who turned them into her supervisor, who secured them in their safe.  We are loyal Marriot customers and time share owners; and after this experience I don't think I am changing brands.  Great people make great companies and hats off to the management and staff at this Springhill Suites off Beltway 8 and McHard Road in Pearland, Texas. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r310609102-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -501,9 +738,6 @@
     <t>The room was very clean - I'm completely anal about having a clean room and bedcovers and they met my standards. The location was nice because Pearland turned out to be a sweet, quiet, up and coming area with some great parks and convenient places to eat. We were no more than a 30 minute drive from the attractions we came to Houston to see (Aquarium and Space Center). Easy access to highways and toll roads. The staff were friendly and helpful, the pool was clean. It was a pleasant surprise to find this hotel and we'll go back again. I didnt take photos - it's just a place to sleep. Well, free breakfast too if you're a very early worm.MoreShow less</t>
   </si>
   <si>
-    <t>August 2015</t>
-  </si>
-  <si>
     <t>The room was very clean - I'm completely anal about having a clean room and bedcovers and they met my standards. The location was nice because Pearland turned out to be a sweet, quiet, up and coming area with some great parks and convenient places to eat. We were no more than a 30 minute drive from the attractions we came to Houston to see (Aquarium and Space Center). Easy access to highways and toll roads. The staff were friendly and helpful, the pool was clean. It was a pleasant surprise to find this hotel and we'll go back again. I didnt take photos - it's just a place to sleep. Well, free breakfast too if you're a very early worm.More</t>
   </si>
   <si>
@@ -543,6 +777,42 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r274872196-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>274872196</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Very nice stay</t>
+  </si>
+  <si>
+    <t>I was in town for my granddaughter's college graduation and party and this hotel was very convenient for every occasion that I needed to be at.  Very friendly front desk staff and the free breakfast was really great.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r263168396-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>263168396</t>
+  </si>
+  <si>
+    <t>04/01/2015</t>
+  </si>
+  <si>
+    <t>Great Stay!!</t>
+  </si>
+  <si>
+    <t>Straight to the point. Good area. right off the highway plenty of restaurants near by. Helpful staff. the room was a spacious and clean. The Bed was comfortable and SOFT! i love soft beds (saw an old review that said it was to soft) but i slept like a baby! Breakfast was great! eggs, biscuits, ham, fresh fruit, oatmeal some sweet breads. good variety. overall great stay. i will come back for sure no doubt!</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r258689036-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -615,6 +885,48 @@
     <t>This hotel seems like it needs a little refreshThe staff is helpful and friendlyThe work out room is a step above not worth itThe pool is a little exposed to the parking lot, but safeThe breakfast is not the best I've had at SpringHill SuitesParking is plentiful and it's just off the highway within 5 miles of lots a restaurantsThe internet was fast and dependable and the TV is HDMI friendly (chromecast, etc.)More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r241106661-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>241106661</t>
+  </si>
+  <si>
+    <t>11/23/2014</t>
+  </si>
+  <si>
+    <t>Best Marriott Product</t>
+  </si>
+  <si>
+    <t>In my opinion, SpringHill is Marriott's best product. All suites, free breakfast, free wifi. I was here traveling for work. The room had a weird layout with the TV sitting on a mini-fridge but overall it was clean and was the standard Springhill room that I like. Having a work space separate from the bed area make working in the room work well. I used the gym which was average - nothing great, nothing terrible. Breakfast was a full spread... and free! Staff was courteous and I met the GM briefly who was extremely nice and helpful. Pearland has A LOT of restaurants and a lot of them are in close driving distance from the hotel. One complaint I had was that my smoke detector was clicking the entire stay which was pretty annoying. When I return to this area I will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>In my opinion, SpringHill is Marriott's best product. All suites, free breakfast, free wifi. I was here traveling for work. The room had a weird layout with the TV sitting on a mini-fridge but overall it was clean and was the standard Springhill room that I like. Having a work space separate from the bed area make working in the room work well. I used the gym which was average - nothing great, nothing terrible. Breakfast was a full spread... and free! Staff was courteous and I met the GM briefly who was extremely nice and helpful. Pearland has A LOT of restaurants and a lot of them are in close driving distance from the hotel. One complaint I had was that my smoke detector was clicking the entire stay which was pretty annoying. When I return to this area I will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r211226023-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>211226023</t>
+  </si>
+  <si>
+    <t>06/20/2014</t>
+  </si>
+  <si>
+    <t>A bit of heaven</t>
+  </si>
+  <si>
+    <t>I made reservations the day before my arrival in preparation for my husbands surgery at the med. center, after having my reservation cancelled at La Quinta after they found out I had a free nights stay voucher due to a bad experience.I didnt arrive until after 10:00 and I was exhausted. I was warmly greeted and there was no signing in, pecking at the keyboard, making up keys...anything. I was handed my keys and told when breakfast would be available, and pointed in the right direction.When I got into my room I found it very clean, the layout was perfect, and comfortable. The pictures in reviews dont do the room justice, at least in the room I was given.  I can't say one bad thing about it.The breakfast bar is well stocked with a large variety of goodies, and kept clean by the staff.I stayed for 2 days and both were perfect, just what I needed after a few stressful days. The check out was simple, no fuss and the staff was more than accomodating.I'd say this was a 5 star spot!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>I made reservations the day before my arrival in preparation for my husbands surgery at the med. center, after having my reservation cancelled at La Quinta after they found out I had a free nights stay voucher due to a bad experience.I didnt arrive until after 10:00 and I was exhausted. I was warmly greeted and there was no signing in, pecking at the keyboard, making up keys...anything. I was handed my keys and told when breakfast would be available, and pointed in the right direction.When I got into my room I found it very clean, the layout was perfect, and comfortable. The pictures in reviews dont do the room justice, at least in the room I was given.  I can't say one bad thing about it.The breakfast bar is well stocked with a large variety of goodies, and kept clean by the staff.I stayed for 2 days and both were perfect, just what I needed after a few stressful days. The check out was simple, no fuss and the staff was more than accomodating.I'd say this was a 5 star spot!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r207536216-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -630,9 +942,6 @@
     <t>Will not ever stay there again . First the shower want work second they rent room to dopers that party all night keeping everyone awake told front desk they dont care Days Inn &amp; Suites Duncan/Spartanburg MoreShow less</t>
   </si>
   <si>
-    <t>May 2014</t>
-  </si>
-  <si>
     <t>Rushi P, Manager at SpringHill Suites Houston Pearland, responded to this reviewResponded June 20, 2014</t>
   </si>
   <si>
@@ -676,6 +985,48 @@
   </si>
   <si>
     <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r199084318-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>199084318</t>
+  </si>
+  <si>
+    <t>03/28/2014</t>
+  </si>
+  <si>
+    <t>Was Okay, Breaky was good</t>
+  </si>
+  <si>
+    <t>This was an okay Hotel, Nothing to special. Breakfast is included in price. Buffet had a variety.Wifi is fast. Parking was great. Service was just okay. Beds had memory foam, very comfortable.We were here on business, stopped in the area to see a friend at the Houston Rodeo.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rushi P, Manager at SpringHill Suites Houston Pearland, responded to this reviewResponded April 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2014</t>
+  </si>
+  <si>
+    <t>This was an okay Hotel, Nothing to special. Breakfast is included in price. Buffet had a variety.Wifi is fast. Parking was great. Service was just okay. Beds had memory foam, very comfortable.We were here on business, stopped in the area to see a friend at the Houston Rodeo.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r198116169-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>198116169</t>
+  </si>
+  <si>
+    <t>03/20/2014</t>
+  </si>
+  <si>
+    <t>Excellent service</t>
+  </si>
+  <si>
+    <t>I checked in the late.  The woman was fantastic.  I was stuck in Houston due to missing connection.  Most hotels were sold out.  It was very late and I was exhausted (i was only going to get a few hours sleep).  She suggested that she schedule a car because I was leaving again at 5 am. Thank goodness she did. Every half hour helps.  Gave me toiletries because I was without a bag.  Then in the am, I was leaving so early breakfast was not out yet.  The gentleman went in the back a gave me a bagel so I would have something before my long business day.  Hotel was very clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>I checked in the late.  The woman was fantastic.  I was stuck in Houston due to missing connection.  Most hotels were sold out.  It was very late and I was exhausted (i was only going to get a few hours sleep).  She suggested that she schedule a car because I was leaving again at 5 am. Thank goodness she did. Every half hour helps.  Gave me toiletries because I was without a bag.  Then in the am, I was leaving so early breakfast was not out yet.  The gentleman went in the back a gave me a bagel so I would have something before my long business day.  Hotel was very clean.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r195079996-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
@@ -743,6 +1094,42 @@
     <t>My husband and kids stayed here for a 3 night getaway recently.  Jonathon helped us during check in and was very nice, offered the kids colors and coloring sheets.  The room was mostly clean, the bathroom was less than sparkling and could use a little extra attention other than a basic daily clean (dirty grout and baseboards).  The towels were just awful.  I don't consider myself to be a towel snob by any means but I don't even know how these absorbed any water, they were so thin and rough.  The beds were clean and comfortable.  The air/heater unit is a window unit that kicks on and off all night long which made sleeping for us a little difficult.  The free breakfast was very nice, plenty of hot and cold options.  But on our last morning there, even though it stays out until 9:30, there was an employee removing everything at 9:25 while guests were still trying to get something to eat.  She didn't seem to care, just kept removing everything.  The gym was nicely equipped and the free wifi was great and fast.  While this wasn't an absolutely terrible stay, I don't think I'd stay here again, there are many other options in the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r175041241-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>175041241</t>
+  </si>
+  <si>
+    <t>08/31/2013</t>
+  </si>
+  <si>
+    <t>Okay hotel</t>
+  </si>
+  <si>
+    <t>I don't think it was up to Marriott's standards.  We stayed three nights.  The rooms didn't get cleaned only clean towels.  The breakfast was not replenished as needed.We asked for extra pillows and a blanket and none available I was told due to being sold out.  We needed these for the fold out couch.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r167395808-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>167395808</t>
+  </si>
+  <si>
+    <t>07/13/2013</t>
+  </si>
+  <si>
+    <t>Not your typical Springhill Suites, but good stay</t>
+  </si>
+  <si>
+    <t>The Springhill Suites is one of my favorite hotel chains.  The properties I've stayed in are modern and up to date.  The Pearland Springhill suites could use and overhaul.  The property is clean and the staff is super friendly.  The rooms that I've stayed in the last two visits are not at all up to par with the other Springhill Suites properties.  They are older and the décor is outdated as well.   This is more of a note to myself.  I travel weekly and I prefer a newer, modernly decorated property.  I wouldn't discourage folks from staying here.  It's just fine for a short stay right outside of Houston.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r157604284-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -788,6 +1175,45 @@
     <t xml:space="preserve">We were in town for The Houston Livestock Show &amp; Rodeo, plus visiting friends. It was a super bed with great pillows. Coffee pot &amp; fridge in the room.  Had to have ice packs frozen for my meds &amp; the lobby attendant was gracious enough to put in employees freezer overnight for me. Woke to a great Continental Breakfast, was very fresh! Will stay again on next visit! </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r149737128-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>149737128</t>
+  </si>
+  <si>
+    <t>01/15/2013</t>
+  </si>
+  <si>
+    <t>would stay there again</t>
+  </si>
+  <si>
+    <t>Nice,clean,seemed rather new.Beds were comfortable.Free breakfest.Close to Hobby airport.Also close to NASA Space Center.Price was very reasonable.I used AAA discount.Easy on/off Highway 45.It was kind of set back off the street.But it had a big sign so that you could see it.Checked for bed bugs &amp; there were none.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r148137799-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>148137799</t>
+  </si>
+  <si>
+    <t>12/27/2012</t>
+  </si>
+  <si>
+    <t>What is that smell!!!!</t>
+  </si>
+  <si>
+    <t>Musty smell felt very uncomfortable!!!I tend to regularly stay at Marriott or Hyatt properties and have NEVER experienced the discomfort I did for the past 3 days.  The air units in all rooms contained large amounts of mold!Check- In: The associate was not rude however questioned the number of people in my party which did not apply seeing as though I had 2 suites that slept 6 people. Her appearance was lacking and not representative of Marriott professionals.  Rooms: me and my family stayed at this property for the Christmas holiday and were very disappointed.  After checking into several rooms on the 3rd floor we smelled a very musty wet smell in both rooms we occupied.  I requested to change rooms, after smelling 2 other rooms decided to stay in a room that the housekeeper sprayed febreeze into.  I had to actually go to bath and bodyworks for plug ins to be able to tolerate the smell in these rooms.  Parking/Location: If your destination is anywhere near hwy 288 this property is a good location for you but anywhere near 45 it’s too far.  I used ALL of my Marriott points accumulated to stay at this hotel and fully intend to report this hotel as unclean and not worth the economical rate it charges.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Musty smell felt very uncomfortable!!!I tend to regularly stay at Marriott or Hyatt properties and have NEVER experienced the discomfort I did for the past 3 days.  The air units in all rooms contained large amounts of mold!Check- In: The associate was not rude however questioned the number of people in my party which did not apply seeing as though I had 2 suites that slept 6 people. Her appearance was lacking and not representative of Marriott professionals.  Rooms: me and my family stayed at this property for the Christmas holiday and were very disappointed.  After checking into several rooms on the 3rd floor we smelled a very musty wet smell in both rooms we occupied.  I requested to change rooms, after smelling 2 other rooms decided to stay in a room that the housekeeper sprayed febreeze into.  I had to actually go to bath and bodyworks for plug ins to be able to tolerate the smell in these rooms.  Parking/Location: If your destination is anywhere near hwy 288 this property is a good location for you but anywhere near 45 it’s too far.  I used ALL of my Marriott points accumulated to stay at this hotel and fully intend to report this hotel as unclean and not worth the economical rate it charges.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r147975894-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -803,9 +1229,6 @@
     <t>Good place to stay while visiting family in Pearland. The beds were comfy, the breakfast was adequate and it had a nice fitness center. We stay at Marriott's all over the country and wish they would have a few more choices at breakfast like yogurt and different types of cereal.</t>
   </si>
   <si>
-    <t>December 2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r145606670-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -842,6 +1265,42 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r140040271-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>140040271</t>
+  </si>
+  <si>
+    <t>09/11/2012</t>
+  </si>
+  <si>
+    <t>This hotel is the worst Marriott hotel I have stated in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly at checkin then all else went downhill We tried to use the first free computer.  Internet was as slow as old telephone dial up.  When we finally connected the printer ate the paper Used the other one - incurring charges on the website we were on - and after waiting forever again the printer Was out of ink.  The room was like hotel 6 decor.  Loud ac that was moldy.  Two out of our parties four rooms had allergy issues due to it.  The tv satellite did not work 75 percent Of the time.  Bed terrible.  Hot water took about a minute to get.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r131200684-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>131200684</t>
+  </si>
+  <si>
+    <t>06/03/2012</t>
+  </si>
+  <si>
+    <t>Great breakfast with a few issues</t>
+  </si>
+  <si>
+    <t>Best breakfast we have had on a long Texas trip. Real eggs, bacon and sausage and many other choices. Our room had a really bad odor when we arrived, but running the fan helped some,and the staff used a spray tht helped a lot too. The room was nice, including a microwave and small frig. Had difficulty setting the water temp with the shower...it was sticky and hard to find the right spot for a good temp. Only major problem was on our day to live we used the business center computer to print boarding passes, and it took 20 minutes...9:13-9:35 am...I checked the time! Highly recommend finding another way to get your passes!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Best breakfast we have had on a long Texas trip. Real eggs, bacon and sausage and many other choices. Our room had a really bad odor when we arrived, but running the fan helped some,and the staff used a spray tht helped a lot too. The room was nice, including a microwave and small frig. Had difficulty setting the water temp with the shower...it was sticky and hard to find the right spot for a good temp. Only major problem was on our day to live we used the business center computer to print boarding passes, and it took 20 minutes...9:13-9:35 am...I checked the time! Highly recommend finding another way to get your passes!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r130263392-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -897,6 +1356,54 @@
   </si>
   <si>
     <t>I spent the night at this hotel in the burbs.  It is a little further from the airport that expected which spawned me missing my flight during spring break week.  Thank God I was able to get on the next flight - what are the changes.  There is not much around the hotel so eat before you retire in for the night.  The hotel is clean however it is dated and has a decor, case goods of an original build SHS.  My room appeared to have a leak over the bed that was repaired but not so well.  This hotel does paint frequent as you can see in the room hallway and staircase.  Not sure I would return unless I was doing business near by as the hotel is a little too far from the city with no much going on around it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r126705620-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>126705620</t>
+  </si>
+  <si>
+    <t>03/26/2012</t>
+  </si>
+  <si>
+    <t>Used to be good, but has really gone downhill</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel everytime I travel to Houston for business, which is about once a quarter.  When it was first built, it was lovely - the staff was friendly, the rooms spiffy and the housekeeping on the ball.  However, over the past year or so, I've noticed a big droff-off in quality overall.  I don't know if this is under new management, but the change is so drastic that after my last experieince, I vowed never to stay hear again.  
+Room Layout:  The set up of the TV is such that if working at the desk, you will not get a clear view of the screen.  The bathroom sink in some rooms is directly across from the beds.  OK when traveling alone, but no privacy if traveling as a couple.  It gives the room an overall "motel" rather than "suite" feel.  
+Front Desk:  I've had some very friendly clerks and then others not so much.  I have not experienced any downright rude clerks however, as other reviewers have noted.
+Housekeeping:  THIS is where the quality has really fallen off, to the point that it was just gross the last time I stayed here.  The room carpet had crumbs from the previous occupant(s), the desk was sticky (with food) and the coach had all sorts of stains on it.  Really disgusting.  However, the worst was the various bugs which were in the my room!  During the night, I...I have stayed at this hotel everytime I travel to Houston for business, which is about once a quarter.  When it was first built, it was lovely - the staff was friendly, the rooms spiffy and the housekeeping on the ball.  However, over the past year or so, I've noticed a big droff-off in quality overall.  I don't know if this is under new management, but the change is so drastic that after my last experieince, I vowed never to stay hear again.  Room Layout:  The set up of the TV is such that if working at the desk, you will not get a clear view of the screen.  The bathroom sink in some rooms is directly across from the beds.  OK when traveling alone, but no privacy if traveling as a couple.  It gives the room an overall "motel" rather than "suite" feel.  Front Desk:  I've had some very friendly clerks and then others not so much.  I have not experienced any downright rude clerks however, as other reviewers have noted.Housekeeping:  THIS is where the quality has really fallen off, to the point that it was just gross the last time I stayed here.  The room carpet had crumbs from the previous occupant(s), the desk was sticky (with food) and the coach had all sorts of stains on it.  Really disgusting.  However, the worst was the various bugs which were in the my room!  During the night, I awoke to hear insects buzzing around my bed.  In the morning, while working on my laptop at the desk (I had wiped the desk down myself the night before), I noticed a large insect inching up the walll.  Once I killed that insect, another one just like it appeared a few minutes later.  I finally decided to check out before I really wanted to, and went to the Starbucks to finish my computer work.  Location: Pearland is about 25 miles from Houston downtown.  This hotel is just off the highway, but you need a car if you want to be able to eat anywhere decent in the area.  There is only a Vietnamese and pizzeria restaurant within walking distance, neither of which are any good.I would not recommend this place, even if it is offering a good rate.  It is a dated hotel, with the rooms needing updating and renovation and the housekeeping staff needing retraining on how to proberly clean rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel everytime I travel to Houston for business, which is about once a quarter.  When it was first built, it was lovely - the staff was friendly, the rooms spiffy and the housekeeping on the ball.  However, over the past year or so, I've noticed a big droff-off in quality overall.  I don't know if this is under new management, but the change is so drastic that after my last experieince, I vowed never to stay hear again.  
+Room Layout:  The set up of the TV is such that if working at the desk, you will not get a clear view of the screen.  The bathroom sink in some rooms is directly across from the beds.  OK when traveling alone, but no privacy if traveling as a couple.  It gives the room an overall "motel" rather than "suite" feel.  
+Front Desk:  I've had some very friendly clerks and then others not so much.  I have not experienced any downright rude clerks however, as other reviewers have noted.
+Housekeeping:  THIS is where the quality has really fallen off, to the point that it was just gross the last time I stayed here.  The room carpet had crumbs from the previous occupant(s), the desk was sticky (with food) and the coach had all sorts of stains on it.  Really disgusting.  However, the worst was the various bugs which were in the my room!  During the night, I...I have stayed at this hotel everytime I travel to Houston for business, which is about once a quarter.  When it was first built, it was lovely - the staff was friendly, the rooms spiffy and the housekeeping on the ball.  However, over the past year or so, I've noticed a big droff-off in quality overall.  I don't know if this is under new management, but the change is so drastic that after my last experieince, I vowed never to stay hear again.  Room Layout:  The set up of the TV is such that if working at the desk, you will not get a clear view of the screen.  The bathroom sink in some rooms is directly across from the beds.  OK when traveling alone, but no privacy if traveling as a couple.  It gives the room an overall "motel" rather than "suite" feel.  Front Desk:  I've had some very friendly clerks and then others not so much.  I have not experienced any downright rude clerks however, as other reviewers have noted.Housekeeping:  THIS is where the quality has really fallen off, to the point that it was just gross the last time I stayed here.  The room carpet had crumbs from the previous occupant(s), the desk was sticky (with food) and the coach had all sorts of stains on it.  Really disgusting.  However, the worst was the various bugs which were in the my room!  During the night, I awoke to hear insects buzzing around my bed.  In the morning, while working on my laptop at the desk (I had wiped the desk down myself the night before), I noticed a large insect inching up the walll.  Once I killed that insect, another one just like it appeared a few minutes later.  I finally decided to check out before I really wanted to, and went to the Starbucks to finish my computer work.  Location: Pearland is about 25 miles from Houston downtown.  This hotel is just off the highway, but you need a car if you want to be able to eat anywhere decent in the area.  There is only a Vietnamese and pizzeria restaurant within walking distance, neither of which are any good.I would not recommend this place, even if it is offering a good rate.  It is a dated hotel, with the rooms needing updating and renovation and the housekeeping staff needing retraining on how to proberly clean rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r118797634-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>118797634</t>
+  </si>
+  <si>
+    <t>09/30/2011</t>
+  </si>
+  <si>
+    <t>Musty smell &amp; feel, very slow internet</t>
+  </si>
+  <si>
+    <t>We almost always stay on Marriott properties, so we have become familiar with what to expect.  This hotel did not deliver.  The front desk staff was helpful enough (moving us to a 2nd room after we checked in because of a strong musty smell), but not very friendly.  The new room had very obviously just been sprayed with air freshener before they gave us our new keys (very strong air freshener smell), but as our 2 night stay wore on, the musty smell was also present in the new room, definitely coming from the air conditioner/vent by our bed.  It felt humid in the room despite the air conditioning and it was very hard to get the room to a comfortable balance of temperature and humidity.  I honestly feel like I am getting a cold after sleeping in there for 2 nights.  The breakfast was above average, the waffle station was great with strawberries, etc.  The eggs, hashbrowns, etc. were barely edible, but I do appreciate the effort to have a hot breakfast and there were lots of other offerings.  The "business center" consisted of 2 computers and a printer in the lobby, but did come in very handy and worked well.  The workout room was well appointed and we used it twice.  My husband and I both rely on fast internet to get work done and the internet here was very poor.  Very slow and often quite entirely.  Very...We almost always stay on Marriott properties, so we have become familiar with what to expect.  This hotel did not deliver.  The front desk staff was helpful enough (moving us to a 2nd room after we checked in because of a strong musty smell), but not very friendly.  The new room had very obviously just been sprayed with air freshener before they gave us our new keys (very strong air freshener smell), but as our 2 night stay wore on, the musty smell was also present in the new room, definitely coming from the air conditioner/vent by our bed.  It felt humid in the room despite the air conditioning and it was very hard to get the room to a comfortable balance of temperature and humidity.  I honestly feel like I am getting a cold after sleeping in there for 2 nights.  The breakfast was above average, the waffle station was great with strawberries, etc.  The eggs, hashbrowns, etc. were barely edible, but I do appreciate the effort to have a hot breakfast and there were lots of other offerings.  The "business center" consisted of 2 computers and a printer in the lobby, but did come in very handy and worked well.  The workout room was well appointed and we used it twice.  My husband and I both rely on fast internet to get work done and the internet here was very poor.  Very slow and often quite entirely.  Very frustrating.  All in all, we couldn't wait to leave.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>We almost always stay on Marriott properties, so we have become familiar with what to expect.  This hotel did not deliver.  The front desk staff was helpful enough (moving us to a 2nd room after we checked in because of a strong musty smell), but not very friendly.  The new room had very obviously just been sprayed with air freshener before they gave us our new keys (very strong air freshener smell), but as our 2 night stay wore on, the musty smell was also present in the new room, definitely coming from the air conditioner/vent by our bed.  It felt humid in the room despite the air conditioning and it was very hard to get the room to a comfortable balance of temperature and humidity.  I honestly feel like I am getting a cold after sleeping in there for 2 nights.  The breakfast was above average, the waffle station was great with strawberries, etc.  The eggs, hashbrowns, etc. were barely edible, but I do appreciate the effort to have a hot breakfast and there were lots of other offerings.  The "business center" consisted of 2 computers and a printer in the lobby, but did come in very handy and worked well.  The workout room was well appointed and we used it twice.  My husband and I both rely on fast internet to get work done and the internet here was very poor.  Very slow and often quite entirely.  Very...We almost always stay on Marriott properties, so we have become familiar with what to expect.  This hotel did not deliver.  The front desk staff was helpful enough (moving us to a 2nd room after we checked in because of a strong musty smell), but not very friendly.  The new room had very obviously just been sprayed with air freshener before they gave us our new keys (very strong air freshener smell), but as our 2 night stay wore on, the musty smell was also present in the new room, definitely coming from the air conditioner/vent by our bed.  It felt humid in the room despite the air conditioning and it was very hard to get the room to a comfortable balance of temperature and humidity.  I honestly feel like I am getting a cold after sleeping in there for 2 nights.  The breakfast was above average, the waffle station was great with strawberries, etc.  The eggs, hashbrowns, etc. were barely edible, but I do appreciate the effort to have a hot breakfast and there were lots of other offerings.  The "business center" consisted of 2 computers and a printer in the lobby, but did come in very handy and worked well.  The workout room was well appointed and we used it twice.  My husband and I both rely on fast internet to get work done and the internet here was very poor.  Very slow and often quite entirely.  Very frustrating.  All in all, we couldn't wait to leave.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r116637441-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
@@ -964,6 +1471,42 @@
 When I first looked at the hotel's website I it seemed to be a new hotel, and I thought "chances are the rooms will be nice, and well maintained".  So, I booked a room with two queen beds and one sofa bed.  We were there to bring my mother to MD Anderson Cancer Center for Cancer Treatment.  Upon rolling into the parking lot, I noticed that there were very few cars in the parking lot.  The hotel did not appear to have many guests, at least on that date.  I thought, perhaps this is because it is located a bit outside of the business area of Houston, so I proceeded to register my room.  The hostess at the front desk was extremely friendly and behaved in a very professional manner- which I appreciated and noticed right off the bat.  She gave us a room on the first floor, at the far end of the hall.  While unloading our luggage, I thought "I wonder why she didn't give us a closer room, since there doesn't appear to be many people here".  Upon entering our room, it seemed nice and fairly new.  We unloaded all of our luggage, and settled down to relax after a 6 hour drive.  Then, my father discovered that the toilet tank would...PURPOSE OF TRIP:   I was traveling with my elderly parents, and one elderly aunt, to bring my mother for treatment at MD Anderson Cancer Center.  When I first looked at the hotel's website I it seemed to be a new hotel, and I thought "chances are the rooms will be nice, and well maintained".  So, I booked a room with two queen beds and one sofa bed.  We were there to bring my mother to MD Anderson Cancer Center for Cancer Treatment.  Upon rolling into the parking lot, I noticed that there were very few cars in the parking lot.  The hotel did not appear to have many guests, at least on that date.  I thought, perhaps this is because it is located a bit outside of the business area of Houston, so I proceeded to register my room.  The hostess at the front desk was extremely friendly and behaved in a very professional manner- which I appreciated and noticed right off the bat.  She gave us a room on the first floor, at the far end of the hall.  While unloading our luggage, I thought "I wonder why she didn't give us a closer room, since there doesn't appear to be many people here".  Upon entering our room, it seemed nice and fairly new.  We unloaded all of our luggage, and settled down to relax after a 6 hour drive.  Then, my father discovered that the toilet tank would not refill [at all] after it was flushed.  I called the front desk, and she told us she would move us to another room. This was very aggrevating after settling in and unpacking things, and wiping the room down with disinfectant as we like to be sure the room is clean.  So, we packed up, and moved.  This time to a room closer near the lobby, at my request.   I then had to go re-park the car closer- another aggrevation.  So we got to our new room with all of our luggage and start unpacking.  My dad checks the bathroom, and THAT toilet is doing the same thing:  it will not refill with water once it is flushed.  Also, the bathroom vent is hanging out of the ceiling with wires visible.  I immediately called the front desk.  She apologized and offered us another room. At this point I was very aggrevated.  I said, it is not feasible for us to keep moving our luggage all night- I have a sick lady here, and three of these guests are elderly.  She then sent a man to the room [who never introduced himself as the manager by the way] who came in and worked on the problem with the toilet and the bathroom vent, and finally corrected them, though the toilet still filled very slowly thereafter- took maybe 15 min to fill each time.  So we then get the room wiped down again, and get unpacked.  I pulled out the sofabed to prepare my bed for the night to find dirty, disguisting linens filled with potato chip crumbs, from the guest before me.    I looked in the closet, to find that my "clean linen bag"  that I was supposed to use to fix the bed was empty as well.  I called the front desk clerk who said she didn't know what kind of linens went on it.  But that she would check in to it, and get me some more.  I had to strip off the old dirty linens myself (who knows what sort of creatures were in them) and so I just threw them out in the hall.  I called and told her that I did, and she said she would come get them (but the next day at check out they were still sitting in the hallway).   The room was equipped with a nice flat screen TV, yet the TV would not pick up the TV stations clearly, it had terrible reception as if there was some sort of short in the wire-  clear one minute and static and loud popping noise the next.- so we were not really able to watch TV.   Another issue:  The Queen Beds-  were very uncomfortable;  they are NOT firm and supportive;  instead they have some type of foam on the top of the mattress which you sort of sink down into- which my parents and my aunt said was an absolute nightmare on their backs.    The next morning, we had the continental breakfast which I found to be pretty good.  Prior to checkout, I called and spoke with the [same] front desk clerk about everything that had happened.  She connected me to the man who had fixed our toilets- who identified himself as being the manager.  He gave me a 15.00 discount on the room which I found to be rather insulting considering the nightmare of a stay that we had experienced and that a hotel is supposed to be in the business of hospitality.  Upon pulling out of the hotel, I thought about the fact that very few cars were present in the parking lot- perhaps it was for a reason?  I would not recommend this hotel to anyone, nor would I stay there again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r80228369-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>80228369</t>
+  </si>
+  <si>
+    <t>09/19/2010</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>We used this hotel for our family reunion.  The staff was great.  Thank you for making our stay such a pleasure.  Hopefully we will be coming back to the area in 2 or 3 years.  We look forward coming back to your hotel.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r79520872-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>79520872</t>
+  </si>
+  <si>
+    <t>09/14/2010</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>We stayed here for our race at MSR. The front desk staff, particularly Sharee, were among the best employees we've encountered with Marriott - helpful, accommodating and very friendly. The room was very comfortable, clean and quiet, even though the highway is very close to the hotel. For our purposes, the location was as convenient as possible (there are really no closer hotels to the track) and access was easy. Plenty of places nearby for dining and shopping. The included breakfast was good. We would stay here again.</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r71504736-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -1024,6 +1567,42 @@
     <t>My wife and I stayed at this location for a friend's wedding south of the loop, and it was awful.  First and foremost, I am a Marriott rewards member, and always stay when I can.  We were travelling with points, so maybe that is why they stuck me on the first floor next to the ice machine?  This isn't usually my experience with Marriott, so when I informed the lady at the front that the heater in our room wasn't working, (was blowing cool air for over 20 minutes, did not heat up), she proceeded to ask me 20 questions about how long I had it running form, was I sure the knobs were positioned correctly, etc.  I informed her that she need just pull up my rewards information to see this wasn't my first rodeo, but it still took her an additional 20 minutes and several calls to shift managers, then ultimately the hotel manager before she finally changed our rooms.  She was very condescending and was not polite.  Also, they did not provide a high speed internet chord until I asked.  While I was in the lobby the next day waiting for some company, they vacuumed the entire lobby, which is a good thing, except the gentlemen kept giving me dirty looks and practically vacuumed up my socks trying to give me the hint to move. The room was clean, but they closed breakfast early which was seriously...My wife and I stayed at this location for a friend's wedding south of the loop, and it was awful.  First and foremost, I am a Marriott rewards member, and always stay when I can.  We were travelling with points, so maybe that is why they stuck me on the first floor next to the ice machine?  This isn't usually my experience with Marriott, so when I informed the lady at the front that the heater in our room wasn't working, (was blowing cool air for over 20 minutes, did not heat up), she proceeded to ask me 20 questions about how long I had it running form, was I sure the knobs were positioned correctly, etc.  I informed her that she need just pull up my rewards information to see this wasn't my first rodeo, but it still took her an additional 20 minutes and several calls to shift managers, then ultimately the hotel manager before she finally changed our rooms.  She was very condescending and was not polite.  Also, they did not provide a high speed internet chord until I asked.  While I was in the lobby the next day waiting for some company, they vacuumed the entire lobby, which is a good thing, except the gentlemen kept giving me dirty looks and practically vacuumed up my socks trying to give me the hint to move. The room was clean, but they closed breakfast early which was seriously upsetting.  I would NOT recommend this hotel.  Any other Springhill is usually okay, but in Pearland they have a lot to learn.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r47046776-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>47046776</t>
+  </si>
+  <si>
+    <t>10/16/2009</t>
+  </si>
+  <si>
+    <t>Visiting Country Place</t>
+  </si>
+  <si>
+    <t>Nice team of staff all around.  Hotel is well located to Country place were my parents live.  Thanks for a very enjoyable stay.  Will be back for the holidays.</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r37093893-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>37093893</t>
+  </si>
+  <si>
+    <t>08/08/2009</t>
+  </si>
+  <si>
+    <t>Excellent place to stay.  Staff very accommodating!</t>
+  </si>
+  <si>
+    <t>My husband was having surgery in Houston.  The day after his surgery our appointment to go back in was at 2:30.  Check out time is 12:00.  The manager let us stay to 1:30 for no extra charge so I would not have such a long wait at the doctors office with my husband feeling so bad.  The rooms are spacious and clean.  The staff was very friendly.  We had a problem accessing the internet, but we called the number that popped up on our computer and that was easily fixed.  This facility was built in 2007 so everything is relatively new.  The breakfast looked great although we did not have time to partake of it because of his surgery. The lobby is beautiful and they have a nice assortment at the front desk of ice cream, microwaveable goods and drinks.  This hotel is only about 11 miles from the UT Center in Houston.  So it is very convenient for doctors appointments, etc. on Fannin Street area of Houston.  I will definitely stay at this facility again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband was having surgery in Houston.  The day after his surgery our appointment to go back in was at 2:30.  Check out time is 12:00.  The manager let us stay to 1:30 for no extra charge so I would not have such a long wait at the doctors office with my husband feeling so bad.  The rooms are spacious and clean.  The staff was very friendly.  We had a problem accessing the internet, but we called the number that popped up on our computer and that was easily fixed.  This facility was built in 2007 so everything is relatively new.  The breakfast looked great although we did not have time to partake of it because of his surgery. The lobby is beautiful and they have a nice assortment at the front desk of ice cream, microwaveable goods and drinks.  This hotel is only about 11 miles from the UT Center in Houston.  So it is very convenient for doctors appointments, etc. on Fannin Street area of Houston.  I will definitely stay at this facility again in the future.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d656294-r28267982-SpringHill_Suites_Houston_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -1067,9 +1646,6 @@
   </si>
   <si>
     <t>01/02/2008</t>
-  </si>
-  <si>
-    <t>Great Hotel</t>
   </si>
   <si>
     <t>The hotel is very clean and have a wonderful staff.  Loved the size of our rooms.</t>
@@ -1610,7 +2186,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1620,17 +2196,25 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1646,7 +2230,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1655,45 +2239,49 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="n">
         <v>1</v>
       </c>
-      <c r="R3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -1709,7 +2297,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1718,25 +2306,25 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1750,7 +2338,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1766,7 +2354,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1775,35 +2363,37 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1</v>
       </c>
-      <c r="N5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" t="s">
-        <v>74</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>2</v>
-      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1811,7 +2401,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
@@ -1827,7 +2417,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1836,25 +2426,25 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>77</v>
       </c>
-      <c r="J6" t="s">
+      <c r="O6" t="s">
         <v>78</v>
-      </c>
-      <c r="K6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>73</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1868,7 +2458,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -1884,7 +2474,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1893,25 +2483,25 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1925,7 +2515,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -1941,7 +2531,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1950,25 +2540,25 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1982,7 +2572,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -1998,7 +2588,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2007,39 +2597,43 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
         <v>98</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>92</v>
-      </c>
-      <c r="O9" t="s">
-        <v>74</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -2055,7 +2649,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2064,19 +2658,19 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
         <v>104</v>
@@ -2085,24 +2679,18 @@
         <v>53</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
@@ -2118,7 +2706,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2127,49 +2715,39 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>3</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>112</v>
-      </c>
-      <c r="X11" t="s">
-        <v>113</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
@@ -2185,7 +2763,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2194,25 +2772,25 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2223,14 +2801,10 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>112</v>
-      </c>
-      <c r="X12" t="s">
-        <v>113</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
@@ -2246,7 +2820,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2255,47 +2829,35 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" t="s">
-        <v>110</v>
-      </c>
-      <c r="O13" t="s">
-        <v>111</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>3</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>126</v>
-      </c>
-      <c r="X13" t="s">
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
         <v>127</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="14">
@@ -2311,34 +2873,34 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
         <v>129</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>130</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>131</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>132</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
         <v>133</v>
       </c>
-      <c r="M14" t="n">
-        <v>2</v>
-      </c>
-      <c r="N14" t="s">
-        <v>134</v>
-      </c>
       <c r="O14" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2349,14 +2911,10 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>135</v>
-      </c>
-      <c r="X14" t="s">
-        <v>136</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
@@ -2372,34 +2930,34 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
         <v>138</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>139</v>
       </c>
-      <c r="J15" t="s">
-        <v>140</v>
-      </c>
-      <c r="K15" t="s">
-        <v>141</v>
-      </c>
-      <c r="L15" t="s">
-        <v>142</v>
-      </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O15" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2413,7 +2971,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16">
@@ -2429,46 +2987,46 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
         <v>144</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>145</v>
-      </c>
-      <c r="J16" t="s">
-        <v>146</v>
-      </c>
-      <c r="K16" t="s">
-        <v>147</v>
-      </c>
-      <c r="L16" t="s">
-        <v>148</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>149</v>
       </c>
       <c r="O16" t="s">
         <v>53</v>
       </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2476,7 +3034,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17">
@@ -2492,44 +3050,46 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s">
         <v>150</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
         <v>151</v>
       </c>
-      <c r="J17" t="s">
+      <c r="O17" t="s">
         <v>152</v>
       </c>
-      <c r="K17" t="s">
-        <v>153</v>
-      </c>
-      <c r="L17" t="s">
-        <v>154</v>
-      </c>
-      <c r="M17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" t="s">
-        <v>155</v>
-      </c>
-      <c r="O17" t="s">
-        <v>74</v>
-      </c>
       <c r="P17" t="n">
         <v>4</v>
       </c>
       <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2537,7 +3097,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
@@ -2553,54 +3113,48 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s">
         <v>157</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
-        <v>158</v>
-      </c>
-      <c r="J18" t="s">
-        <v>159</v>
-      </c>
-      <c r="K18" t="s">
-        <v>160</v>
-      </c>
-      <c r="L18" t="s">
-        <v>161</v>
-      </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="O18" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19">
@@ -2616,52 +3170,58 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" t="s">
+        <v>161</v>
+      </c>
+      <c r="L19" t="s">
+        <v>162</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
         <v>163</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
-        <v>164</v>
-      </c>
-      <c r="J19" t="s">
-        <v>165</v>
-      </c>
-      <c r="K19" t="s">
-        <v>166</v>
-      </c>
-      <c r="L19" t="s">
-        <v>167</v>
-      </c>
-      <c r="M19" t="n">
-        <v>2</v>
-      </c>
-      <c r="N19" t="s">
-        <v>168</v>
-      </c>
       <c r="O19" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
         <v>3</v>
       </c>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>164</v>
+      </c>
+      <c r="X19" t="s">
+        <v>165</v>
+      </c>
       <c r="Y19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20">
@@ -2677,54 +3237,52 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" t="s">
         <v>169</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>170</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>171</v>
       </c>
-      <c r="K20" t="s">
-        <v>172</v>
-      </c>
-      <c r="L20" t="s">
-        <v>173</v>
-      </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="O20" t="s">
-        <v>111</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>3</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>164</v>
+      </c>
+      <c r="X20" t="s">
+        <v>165</v>
+      </c>
       <c r="Y20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21">
@@ -2740,48 +3298,56 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21" t="s">
+        <v>175</v>
+      </c>
+      <c r="K21" t="s">
         <v>176</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>177</v>
-      </c>
-      <c r="J21" t="s">
-        <v>178</v>
-      </c>
-      <c r="K21" t="s">
-        <v>179</v>
-      </c>
-      <c r="L21" t="s">
-        <v>180</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
+      <c r="N21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O21" t="s">
+        <v>152</v>
+      </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="X21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Y21" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
@@ -2797,40 +3363,42 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" t="s">
         <v>184</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="L22" t="s">
         <v>185</v>
-      </c>
-      <c r="J22" t="s">
-        <v>186</v>
-      </c>
-      <c r="K22" t="s">
-        <v>187</v>
-      </c>
-      <c r="L22" t="s">
-        <v>188</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O22" t="s">
         <v>53</v>
       </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="n">
+      <c r="P22" t="n">
         <v>3</v>
       </c>
-      <c r="R22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
@@ -2840,13 +3408,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="X22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Y22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
@@ -2862,62 +3430,52 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>191</v>
+      </c>
+      <c r="J23" t="s">
+        <v>192</v>
+      </c>
+      <c r="K23" t="s">
         <v>193</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="L23" t="s">
         <v>194</v>
       </c>
-      <c r="J23" t="s">
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
         <v>195</v>
       </c>
-      <c r="K23" t="s">
-        <v>196</v>
-      </c>
-      <c r="L23" t="s">
-        <v>197</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="s">
-        <v>198</v>
-      </c>
       <c r="O23" t="s">
-        <v>74</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
       <c r="R23" t="n">
         <v>4</v>
       </c>
-      <c r="S23" t="n">
-        <v>2</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>199</v>
-      </c>
-      <c r="X23" t="s">
-        <v>200</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24">
@@ -2933,56 +3491,52 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>197</v>
+      </c>
+      <c r="J24" t="s">
+        <v>198</v>
+      </c>
+      <c r="K24" t="s">
+        <v>184</v>
+      </c>
+      <c r="L24" t="s">
+        <v>199</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>195</v>
+      </c>
+      <c r="O24" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>200</v>
+      </c>
+      <c r="X24" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y24" t="s">
         <v>202</v>
-      </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
-        <v>203</v>
-      </c>
-      <c r="J24" t="s">
-        <v>204</v>
-      </c>
-      <c r="K24" t="s">
-        <v>205</v>
-      </c>
-      <c r="L24" t="s">
-        <v>206</v>
-      </c>
-      <c r="M24" t="n">
-        <v>4</v>
-      </c>
-      <c r="N24" t="s">
-        <v>207</v>
-      </c>
-      <c r="O24" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>4</v>
-      </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
-      <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>4</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
-      <c r="Y24" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="25">
@@ -2998,58 +3552,48 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>203</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>204</v>
+      </c>
+      <c r="J25" t="s">
+        <v>205</v>
+      </c>
+      <c r="K25" t="s">
+        <v>206</v>
+      </c>
+      <c r="L25" t="s">
+        <v>207</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>195</v>
+      </c>
+      <c r="O25" t="s">
         <v>208</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
-        <v>209</v>
-      </c>
-      <c r="J25" t="s">
-        <v>210</v>
-      </c>
-      <c r="K25" t="s">
-        <v>211</v>
-      </c>
-      <c r="L25" t="s">
-        <v>212</v>
-      </c>
-      <c r="M25" t="n">
-        <v>4</v>
-      </c>
-      <c r="N25" t="s">
-        <v>213</v>
-      </c>
-      <c r="O25" t="s">
-        <v>74</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26">
@@ -3065,48 +3609,54 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>210</v>
+      </c>
+      <c r="J26" t="s">
+        <v>211</v>
+      </c>
+      <c r="K26" t="s">
+        <v>212</v>
+      </c>
+      <c r="L26" t="s">
+        <v>213</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
         <v>214</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
-        <v>215</v>
-      </c>
-      <c r="J26" t="s">
-        <v>216</v>
-      </c>
-      <c r="K26" t="s">
-        <v>217</v>
-      </c>
-      <c r="L26" t="s">
-        <v>218</v>
-      </c>
-      <c r="M26" t="n">
-        <v>4</v>
-      </c>
-      <c r="N26" t="s">
-        <v>219</v>
-      </c>
       <c r="O26" t="s">
-        <v>143</v>
-      </c>
-      <c r="P26" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
       <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27">
@@ -3122,50 +3672,44 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>215</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>216</v>
+      </c>
+      <c r="J27" t="s">
+        <v>217</v>
+      </c>
+      <c r="K27" t="s">
+        <v>218</v>
+      </c>
+      <c r="L27" t="s">
+        <v>219</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
         <v>220</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
-        <v>221</v>
-      </c>
-      <c r="J27" t="s">
-        <v>222</v>
-      </c>
-      <c r="K27" t="s">
-        <v>223</v>
-      </c>
-      <c r="L27" t="s">
-        <v>224</v>
-      </c>
-      <c r="M27" t="n">
-        <v>2</v>
-      </c>
-      <c r="N27" t="s">
-        <v>225</v>
-      </c>
       <c r="O27" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P27" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" t="n">
-        <v>3</v>
-      </c>
-      <c r="S27" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -3173,7 +3717,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28">
@@ -3189,58 +3733,48 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>223</v>
+      </c>
+      <c r="J28" t="s">
+        <v>224</v>
+      </c>
+      <c r="K28" t="s">
+        <v>225</v>
+      </c>
+      <c r="L28" t="s">
+        <v>226</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
         <v>227</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
-        <v>228</v>
-      </c>
-      <c r="J28" t="s">
-        <v>229</v>
-      </c>
-      <c r="K28" t="s">
-        <v>230</v>
-      </c>
-      <c r="L28" t="s">
-        <v>231</v>
-      </c>
-      <c r="M28" t="n">
-        <v>3</v>
-      </c>
-      <c r="N28" t="s">
-        <v>225</v>
-      </c>
       <c r="O28" t="s">
-        <v>74</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>3</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>3</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29">
@@ -3256,46 +3790,44 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>230</v>
+      </c>
+      <c r="J29" t="s">
+        <v>231</v>
+      </c>
+      <c r="K29" t="s">
+        <v>232</v>
+      </c>
+      <c r="L29" t="s">
         <v>233</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
-        <v>234</v>
-      </c>
-      <c r="J29" t="s">
-        <v>235</v>
-      </c>
-      <c r="K29" t="s">
-        <v>236</v>
-      </c>
-      <c r="L29" t="s">
-        <v>237</v>
-      </c>
       <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>227</v>
+      </c>
+      <c r="O29" t="s">
+        <v>98</v>
+      </c>
       <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3303,7 +3835,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30">
@@ -3319,46 +3851,46 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>235</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>236</v>
+      </c>
+      <c r="J30" t="s">
+        <v>237</v>
+      </c>
+      <c r="K30" t="s">
         <v>238</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="L30" t="s">
         <v>239</v>
       </c>
-      <c r="J30" t="s">
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
         <v>240</v>
       </c>
-      <c r="K30" t="s">
-        <v>241</v>
-      </c>
-      <c r="L30" t="s">
-        <v>242</v>
-      </c>
-      <c r="M30" t="n">
-        <v>3</v>
-      </c>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
+      <c r="O30" t="s">
+        <v>98</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="n">
         <v>5</v>
       </c>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3366,7 +3898,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31">
@@ -3382,46 +3914,44 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>241</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>242</v>
+      </c>
+      <c r="J31" t="s">
         <v>243</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="K31" t="s">
         <v>244</v>
       </c>
-      <c r="J31" t="s">
+      <c r="L31" t="s">
         <v>245</v>
       </c>
-      <c r="K31" t="s">
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
         <v>246</v>
       </c>
-      <c r="L31" t="s">
-        <v>247</v>
-      </c>
-      <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
+      <c r="O31" t="s">
+        <v>98</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3429,7 +3959,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32">
@@ -3445,46 +3975,42 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>247</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
         <v>248</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>249</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>250</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>251</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
         <v>252</v>
       </c>
-      <c r="M32" t="n">
-        <v>4</v>
-      </c>
-      <c r="N32" t="s">
-        <v>253</v>
-      </c>
       <c r="O32" t="s">
-        <v>74</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="n">
-        <v>4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
@@ -3496,7 +4022,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33">
@@ -3512,31 +4038,31 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>253</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
         <v>254</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>255</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>256</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>257</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
         <v>258</v>
-      </c>
-      <c r="M33" t="n">
-        <v>4</v>
-      </c>
-      <c r="N33" t="s">
-        <v>259</v>
       </c>
       <c r="O33" t="s">
         <v>53</v>
@@ -3546,14 +4072,16 @@
       <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34">
@@ -3569,50 +4097,46 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>259</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
         <v>260</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>261</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>262</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>263</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
         <v>264</v>
       </c>
-      <c r="M34" t="n">
-        <v>4</v>
-      </c>
-      <c r="N34" t="s">
-        <v>265</v>
-      </c>
       <c r="O34" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="P34" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>4</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
       <c r="S34" t="n">
         <v>4</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3620,7 +4144,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35">
@@ -3657,37 +4181,27 @@
         <v>270</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
-      </c>
-      <c r="N35" t="s">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
         <v>271</v>
       </c>
-      <c r="O35" t="s">
-        <v>74</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
-      <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="X35" t="s">
+        <v>272</v>
+      </c>
       <c r="Y35" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36">
@@ -3703,7 +4217,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3712,49 +4226,47 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J36" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K36" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L36" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O36" t="s">
-        <v>74</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>280</v>
+      </c>
+      <c r="X36" t="s">
+        <v>281</v>
+      </c>
       <c r="Y36" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37">
@@ -3770,7 +4282,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3779,41 +4291,37 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="J37" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="K37" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="L37" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="O37" t="s">
         <v>53</v>
       </c>
-      <c r="P37" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2</v>
-      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
       <c r="R37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3821,7 +4329,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38">
@@ -3837,7 +4345,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3846,37 +4354,41 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="J38" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="K38" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="L38" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="P38" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q38" t="s"/>
-      <c r="R38" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
       <c r="S38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3884,7 +4396,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39">
@@ -3900,7 +4412,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3909,47 +4421,53 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="J39" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="K39" t="s">
+        <v>300</v>
+      </c>
+      <c r="L39" t="s">
+        <v>301</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
         <v>295</v>
       </c>
-      <c r="L39" t="s">
-        <v>296</v>
-      </c>
-      <c r="M39" t="n">
-        <v>4</v>
-      </c>
-      <c r="N39" t="s">
-        <v>297</v>
-      </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="P39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
         <v>2</v>
       </c>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>302</v>
+      </c>
+      <c r="X39" t="s">
+        <v>303</v>
+      </c>
       <c r="Y39" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40">
@@ -3965,7 +4483,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -3974,41 +4492,39 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="J40" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K40" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L40" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="O40" t="s">
-        <v>74</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -4016,7 +4532,7 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41">
@@ -4032,7 +4548,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4041,41 +4557,41 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="J41" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="K41" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="L41" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4083,7 +4599,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42">
@@ -4099,7 +4615,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4108,22 +4624,22 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="J42" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="K42" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="L42" t="s">
+        <v>321</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
         <v>316</v>
-      </c>
-      <c r="M42" t="n">
-        <v>5</v>
-      </c>
-      <c r="N42" t="s">
-        <v>317</v>
       </c>
       <c r="O42" t="s">
         <v>53</v>
@@ -4132,25 +4648,29 @@
         <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>322</v>
+      </c>
+      <c r="X42" t="s">
+        <v>323</v>
+      </c>
       <c r="Y42" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43">
@@ -4166,7 +4686,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4175,39 +4695,49 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="J43" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K43" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L43" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="O43" t="s">
-        <v>61</v>
-      </c>
-      <c r="P43" t="s"/>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44">
@@ -4223,7 +4753,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4232,49 +4762,39 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="J44" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="K44" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L44" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O44" t="s">
-        <v>74</v>
-      </c>
-      <c r="P44" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>3</v>
-      </c>
-      <c r="R44" t="n">
-        <v>4</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>4</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45">
@@ -4290,7 +4810,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4299,41 +4819,41 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="J45" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K45" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="L45" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="O45" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="P45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4341,7 +4861,7 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46">
@@ -4357,7 +4877,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4366,41 +4886,41 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="J46" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K46" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L46" t="s">
+        <v>348</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
         <v>342</v>
       </c>
-      <c r="M46" t="n">
-        <v>5</v>
-      </c>
-      <c r="N46" t="s">
-        <v>343</v>
-      </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="P46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4408,7 +4928,1975 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>342</v>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>350</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>351</v>
+      </c>
+      <c r="J47" t="s">
+        <v>352</v>
+      </c>
+      <c r="K47" t="s">
+        <v>353</v>
+      </c>
+      <c r="L47" t="s">
+        <v>354</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>355</v>
+      </c>
+      <c r="O47" t="s">
+        <v>98</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>356</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>357</v>
+      </c>
+      <c r="J48" t="s">
+        <v>358</v>
+      </c>
+      <c r="K48" t="s">
+        <v>359</v>
+      </c>
+      <c r="L48" t="s">
+        <v>360</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>361</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>362</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>363</v>
+      </c>
+      <c r="J49" t="s">
+        <v>364</v>
+      </c>
+      <c r="K49" t="s">
+        <v>365</v>
+      </c>
+      <c r="L49" t="s">
+        <v>366</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>367</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>368</v>
+      </c>
+      <c r="J50" t="s">
+        <v>369</v>
+      </c>
+      <c r="K50" t="s">
+        <v>370</v>
+      </c>
+      <c r="L50" t="s">
+        <v>371</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>372</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>373</v>
+      </c>
+      <c r="J51" t="s">
+        <v>374</v>
+      </c>
+      <c r="K51" t="s">
+        <v>375</v>
+      </c>
+      <c r="L51" t="s">
+        <v>376</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>377</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>378</v>
+      </c>
+      <c r="J52" t="s">
+        <v>379</v>
+      </c>
+      <c r="K52" t="s">
+        <v>380</v>
+      </c>
+      <c r="L52" t="s">
+        <v>381</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>382</v>
+      </c>
+      <c r="O52" t="s">
+        <v>98</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>383</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>384</v>
+      </c>
+      <c r="J53" t="s">
+        <v>385</v>
+      </c>
+      <c r="K53" t="s">
+        <v>386</v>
+      </c>
+      <c r="L53" t="s">
+        <v>387</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>388</v>
+      </c>
+      <c r="O53" t="s">
+        <v>98</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>390</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>391</v>
+      </c>
+      <c r="J54" t="s">
+        <v>392</v>
+      </c>
+      <c r="K54" t="s">
+        <v>393</v>
+      </c>
+      <c r="L54" t="s">
+        <v>394</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>388</v>
+      </c>
+      <c r="O54" t="s">
+        <v>98</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>395</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>396</v>
+      </c>
+      <c r="J55" t="s">
+        <v>397</v>
+      </c>
+      <c r="K55" t="s">
+        <v>398</v>
+      </c>
+      <c r="L55" t="s">
+        <v>399</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>400</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>401</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>402</v>
+      </c>
+      <c r="J56" t="s">
+        <v>403</v>
+      </c>
+      <c r="K56" t="s">
+        <v>404</v>
+      </c>
+      <c r="L56" t="s">
+        <v>405</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>406</v>
+      </c>
+      <c r="O56" t="s">
+        <v>98</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>407</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>408</v>
+      </c>
+      <c r="J57" t="s">
+        <v>409</v>
+      </c>
+      <c r="K57" t="s">
+        <v>410</v>
+      </c>
+      <c r="L57" t="s">
+        <v>411</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>412</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>413</v>
+      </c>
+      <c r="J58" t="s">
+        <v>414</v>
+      </c>
+      <c r="K58" t="s">
+        <v>415</v>
+      </c>
+      <c r="L58" t="s">
+        <v>416</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>417</v>
+      </c>
+      <c r="O58" t="s">
+        <v>78</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>419</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>420</v>
+      </c>
+      <c r="J59" t="s">
+        <v>421</v>
+      </c>
+      <c r="K59" t="s">
+        <v>422</v>
+      </c>
+      <c r="L59" t="s">
+        <v>423</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>424</v>
+      </c>
+      <c r="O59" t="s">
+        <v>98</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>425</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>426</v>
+      </c>
+      <c r="J60" t="s">
+        <v>427</v>
+      </c>
+      <c r="K60" t="s">
+        <v>428</v>
+      </c>
+      <c r="L60" t="s">
+        <v>429</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>430</v>
+      </c>
+      <c r="O60" t="s">
+        <v>98</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>431</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>432</v>
+      </c>
+      <c r="J61" t="s">
+        <v>433</v>
+      </c>
+      <c r="K61" t="s">
+        <v>434</v>
+      </c>
+      <c r="L61" t="s">
+        <v>435</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>436</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>438</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>439</v>
+      </c>
+      <c r="J62" t="s">
+        <v>440</v>
+      </c>
+      <c r="K62" t="s">
+        <v>441</v>
+      </c>
+      <c r="L62" t="s">
+        <v>442</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>443</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>445</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>446</v>
+      </c>
+      <c r="J63" t="s">
+        <v>447</v>
+      </c>
+      <c r="K63" t="s">
+        <v>448</v>
+      </c>
+      <c r="L63" t="s">
+        <v>449</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>450</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>452</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>453</v>
+      </c>
+      <c r="J64" t="s">
+        <v>454</v>
+      </c>
+      <c r="K64" t="s">
+        <v>455</v>
+      </c>
+      <c r="L64" t="s">
+        <v>456</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>457</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>459</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>460</v>
+      </c>
+      <c r="J65" t="s">
+        <v>461</v>
+      </c>
+      <c r="K65" t="s">
+        <v>462</v>
+      </c>
+      <c r="L65" t="s">
+        <v>463</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>464</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>466</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>467</v>
+      </c>
+      <c r="J66" t="s">
+        <v>468</v>
+      </c>
+      <c r="K66" t="s">
+        <v>469</v>
+      </c>
+      <c r="L66" t="s">
+        <v>470</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>471</v>
+      </c>
+      <c r="O66" t="s">
+        <v>98</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>473</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>474</v>
+      </c>
+      <c r="J67" t="s">
+        <v>475</v>
+      </c>
+      <c r="K67" t="s">
+        <v>476</v>
+      </c>
+      <c r="L67" t="s">
+        <v>477</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>478</v>
+      </c>
+      <c r="O67" t="s">
+        <v>78</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>479</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>480</v>
+      </c>
+      <c r="J68" t="s">
+        <v>481</v>
+      </c>
+      <c r="K68" t="s">
+        <v>482</v>
+      </c>
+      <c r="L68" t="s">
+        <v>483</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>484</v>
+      </c>
+      <c r="O68" t="s">
+        <v>78</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>485</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>486</v>
+      </c>
+      <c r="J69" t="s">
+        <v>487</v>
+      </c>
+      <c r="K69" t="s">
+        <v>488</v>
+      </c>
+      <c r="L69" t="s">
+        <v>489</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>490</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>491</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>492</v>
+      </c>
+      <c r="J70" t="s">
+        <v>493</v>
+      </c>
+      <c r="K70" t="s">
+        <v>494</v>
+      </c>
+      <c r="L70" t="s">
+        <v>495</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>496</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>498</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>499</v>
+      </c>
+      <c r="J71" t="s">
+        <v>500</v>
+      </c>
+      <c r="K71" t="s">
+        <v>501</v>
+      </c>
+      <c r="L71" t="s">
+        <v>502</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>503</v>
+      </c>
+      <c r="O71" t="s">
+        <v>78</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>505</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>506</v>
+      </c>
+      <c r="J72" t="s">
+        <v>507</v>
+      </c>
+      <c r="K72" t="s">
+        <v>508</v>
+      </c>
+      <c r="L72" t="s">
+        <v>509</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>510</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>511</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>512</v>
+      </c>
+      <c r="J73" t="s">
+        <v>513</v>
+      </c>
+      <c r="K73" t="s">
+        <v>514</v>
+      </c>
+      <c r="L73" t="s">
+        <v>515</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>510</v>
+      </c>
+      <c r="O73" t="s">
+        <v>98</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>517</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>518</v>
+      </c>
+      <c r="J74" t="s">
+        <v>519</v>
+      </c>
+      <c r="K74" t="s">
+        <v>520</v>
+      </c>
+      <c r="L74" t="s">
+        <v>521</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>522</v>
+      </c>
+      <c r="O74" t="s">
+        <v>98</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>523</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>524</v>
+      </c>
+      <c r="J75" t="s">
+        <v>525</v>
+      </c>
+      <c r="K75" t="s">
+        <v>526</v>
+      </c>
+      <c r="L75" t="s">
+        <v>527</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>528</v>
+      </c>
+      <c r="O75" t="s">
+        <v>78</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>56221</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>529</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>530</v>
+      </c>
+      <c r="J76" t="s">
+        <v>531</v>
+      </c>
+      <c r="K76" t="s">
+        <v>476</v>
+      </c>
+      <c r="L76" t="s">
+        <v>532</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>533</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>
